--- a/강의실 통합.xlsx
+++ b/강의실 통합.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shims\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3D1859-9C45-4C3C-9811-A95BECB012CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722FE5C7-108A-4787-87AD-347506665ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3826CA54-B100-4DFE-B580-321FCA0D2008}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3826CA54-B100-4DFE-B580-321FCA0D2008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7770" uniqueCount="2831">
   <si>
     <t>학정번호</t>
   </si>
@@ -5495,6 +5496,3403 @@
   <si>
     <t>신유진</t>
   </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교내전화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재직학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하용수</t>
+  </si>
+  <si>
+    <t>조교수</t>
+  </si>
+  <si>
+    <t>940-5645</t>
+  </si>
+  <si>
+    <t>hys@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>경영대학 경영학부</t>
+  </si>
+  <si>
+    <t>누리관 203호</t>
+  </si>
+  <si>
+    <t>레이몬드</t>
+  </si>
+  <si>
+    <t>부교수</t>
+  </si>
+  <si>
+    <t>940-8663</t>
+  </si>
+  <si>
+    <t>marcr7593@gmail.com</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 미디어커뮤니케이션학부</t>
+  </si>
+  <si>
+    <t>누리관 206호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노정진</t>
+  </si>
+  <si>
+    <t>940-8662</t>
+  </si>
+  <si>
+    <t>jazzrho@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인제니움학부대학 인제니움학부대학</t>
+  </si>
+  <si>
+    <t>누리관 209호</t>
+  </si>
+  <si>
+    <t>오정현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-8092</t>
+  </si>
+  <si>
+    <t>jhyunoh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 로봇학부</t>
+  </si>
+  <si>
+    <t>누리관 301호</t>
+  </si>
+  <si>
+    <t>김진오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수</t>
+  </si>
+  <si>
+    <t>940-5158</t>
+  </si>
+  <si>
+    <t>jokim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 302호, 실험실 누리관 320호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8115</t>
+  </si>
+  <si>
+    <t>dreamrize@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 303호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5155</t>
+  </si>
+  <si>
+    <t>robot@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 303호, 실험실 누리관 319호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박일우</t>
+  </si>
+  <si>
+    <t>940-5156</t>
+  </si>
+  <si>
+    <t>mrquick@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 304호</t>
+  </si>
+  <si>
+    <t>940-5153</t>
+  </si>
+  <si>
+    <t>akaii@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 305호</t>
+  </si>
+  <si>
+    <t>최익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5157</t>
+  </si>
+  <si>
+    <t>ickchoy@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 308호</t>
+  </si>
+  <si>
+    <t>940-5590</t>
+  </si>
+  <si>
+    <t>yhchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 310호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8387</t>
+  </si>
+  <si>
+    <t>backhoon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 313호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5625</t>
+  </si>
+  <si>
+    <t>mhjeong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 314호</t>
+  </si>
+  <si>
+    <t>02-940-8261</t>
+  </si>
+  <si>
+    <t>sunh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 507호</t>
+  </si>
+  <si>
+    <t>김정식</t>
+  </si>
+  <si>
+    <t>02-940-8386</t>
+  </si>
+  <si>
+    <t>Kim.Jungsik@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 508</t>
+  </si>
+  <si>
+    <t>02-940-5314</t>
+  </si>
+  <si>
+    <t>dhkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 510호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박애영</t>
+  </si>
+  <si>
+    <t>02-940-8385</t>
+  </si>
+  <si>
+    <t>aypark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 511호</t>
+  </si>
+  <si>
+    <t>변숙은</t>
+  </si>
+  <si>
+    <t>02-940-8380</t>
+  </si>
+  <si>
+    <t>sebyun@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 512호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임영균</t>
+  </si>
+  <si>
+    <t>02-940-5316</t>
+  </si>
+  <si>
+    <t>lyk5316@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 513호</t>
+  </si>
+  <si>
+    <t>송영출</t>
+  </si>
+  <si>
+    <t>02-940-5315</t>
+  </si>
+  <si>
+    <t>chool@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 514호</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>kimtk@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 515</t>
+  </si>
+  <si>
+    <t>김신곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5431</t>
+  </si>
+  <si>
+    <t>shinkon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 516호</t>
+  </si>
+  <si>
+    <t>02-940-5435</t>
+  </si>
+  <si>
+    <t>skseo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 517호</t>
+  </si>
+  <si>
+    <t>이홍</t>
+  </si>
+  <si>
+    <t>02-940-5317</t>
+  </si>
+  <si>
+    <t>honglee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 524</t>
+  </si>
+  <si>
+    <t>심정은</t>
+  </si>
+  <si>
+    <t>940-8091</t>
+  </si>
+  <si>
+    <t>jeongeunsim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 525호</t>
+  </si>
+  <si>
+    <t>02-940-8384</t>
+  </si>
+  <si>
+    <t>jihyunk@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 526</t>
+  </si>
+  <si>
+    <t>이효정</t>
+  </si>
+  <si>
+    <t>02-940-8262</t>
+  </si>
+  <si>
+    <t>leehj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 528호</t>
+  </si>
+  <si>
+    <t>조은성</t>
+  </si>
+  <si>
+    <t>02-940-5318</t>
+  </si>
+  <si>
+    <t>bene@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 530</t>
+  </si>
+  <si>
+    <t>02-940-5294</t>
+  </si>
+  <si>
+    <t>sjjeong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 531호</t>
+  </si>
+  <si>
+    <t>02-940-8264</t>
+  </si>
+  <si>
+    <t>jhan@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 533</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-8103</t>
+  </si>
+  <si>
+    <t>sjlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>누리관 536호</t>
+  </si>
+  <si>
+    <t>나젠드라</t>
+  </si>
+  <si>
+    <t>940-8618</t>
+  </si>
+  <si>
+    <t>nehabiotech@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 전자바이오물리학과</t>
+  </si>
+  <si>
+    <t>다산재 304호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8619</t>
+  </si>
+  <si>
+    <t>gjlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>다산재 305호</t>
+  </si>
+  <si>
+    <t>940-8660</t>
+  </si>
+  <si>
+    <t>youngjinsa@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 화학과</t>
+  </si>
+  <si>
+    <t>다산재 403호</t>
+  </si>
+  <si>
+    <t>940-5496</t>
+  </si>
+  <si>
+    <t>yychang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>공과대학 환경공학과</t>
+  </si>
+  <si>
+    <t>비마관 307호</t>
+  </si>
+  <si>
+    <t>940-5769</t>
+  </si>
+  <si>
+    <t>jkyang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 308호</t>
+  </si>
+  <si>
+    <t>940-5497</t>
+  </si>
+  <si>
+    <t>yooks@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 309호</t>
+  </si>
+  <si>
+    <t>강선홍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5075</t>
+  </si>
+  <si>
+    <t>seonhong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 320호</t>
+  </si>
+  <si>
+    <t>최상일</t>
+  </si>
+  <si>
+    <t>940-5183</t>
+  </si>
+  <si>
+    <t>sichoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 321호</t>
+  </si>
+  <si>
+    <t>이병제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5299</t>
+  </si>
+  <si>
+    <t>bj_lee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자융합공학과</t>
+  </si>
+  <si>
+    <t>비마관 406호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5197</t>
+  </si>
+  <si>
+    <t>jhkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 411호</t>
+  </si>
+  <si>
+    <t>940-5298</t>
+  </si>
+  <si>
+    <t>jinchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 412호</t>
+  </si>
+  <si>
+    <t>940-5763</t>
+  </si>
+  <si>
+    <t>smkoo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자재료공학과</t>
+  </si>
+  <si>
+    <t>비마관 425호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5219</t>
+  </si>
+  <si>
+    <t>jmOH@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 431-1호</t>
+  </si>
+  <si>
+    <t>940-5125</t>
+  </si>
+  <si>
+    <t>heejaejang@gmail.com</t>
+  </si>
+  <si>
+    <t>비마관 505호</t>
+  </si>
+  <si>
+    <t>940-5173</t>
+  </si>
+  <si>
+    <t>chpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>공과대학 화학공학과</t>
+  </si>
+  <si>
+    <t>비마관 506호</t>
+  </si>
+  <si>
+    <t>생물화공연구실</t>
+  </si>
+  <si>
+    <t>940-5768</t>
+  </si>
+  <si>
+    <t>korea1@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 508호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노재료연구실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5176</t>
+  </si>
+  <si>
+    <t>jschoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 511호</t>
+  </si>
+  <si>
+    <t>열역학연구실</t>
+  </si>
+  <si>
+    <t>940-5203</t>
+  </si>
+  <si>
+    <t>jclee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 522호</t>
+  </si>
+  <si>
+    <t>신현철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5553</t>
+  </si>
+  <si>
+    <t>hshin@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 523호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코두루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reddyjchem@gmail.com</t>
+  </si>
+  <si>
+    <t>비마관 525-1호</t>
+  </si>
+  <si>
+    <t>940-5071</t>
+  </si>
+  <si>
+    <t>nykim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자공학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비마관 604-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5118</t>
+  </si>
+  <si>
+    <t>eskim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 604호</t>
+  </si>
+  <si>
+    <t>김복기</t>
+  </si>
+  <si>
+    <t>940-5254</t>
+  </si>
+  <si>
+    <t>bkkim@kw.ac.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비마관 605호</t>
+  </si>
+  <si>
+    <t>940-5581</t>
+  </si>
+  <si>
+    <t>slee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 607호</t>
+  </si>
+  <si>
+    <t>940-5174</t>
+  </si>
+  <si>
+    <t>jwko@kw.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비마관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 705</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정시스템연구실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5178</t>
+  </si>
+  <si>
+    <t>yoondy@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 706호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정시스템연구실</t>
+  </si>
+  <si>
+    <t>박세규</t>
+  </si>
+  <si>
+    <t>940-8676</t>
+  </si>
+  <si>
+    <t>vitalspark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 707호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에너지소재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소자연구실</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손희상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5772</t>
+  </si>
+  <si>
+    <t>hsohn@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 709호</t>
+  </si>
+  <si>
+    <t>기능성신소재연구실</t>
+  </si>
+  <si>
+    <t>이영수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5103</t>
+  </si>
+  <si>
+    <t>ysl@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 712호</t>
+  </si>
+  <si>
+    <t>940-5177</t>
+  </si>
+  <si>
+    <t>kdh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관 716호</t>
+  </si>
+  <si>
+    <t>고분자소재연구실</t>
+  </si>
+  <si>
+    <t>이재승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5115</t>
+  </si>
+  <si>
+    <t>jslee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>비마관617</t>
+  </si>
+  <si>
+    <t>940-5097</t>
+  </si>
+  <si>
+    <t>hwjung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 정보콘텐츠학과</t>
+  </si>
+  <si>
+    <t>새빛관 503호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동호</t>
+  </si>
+  <si>
+    <t>940-5216</t>
+  </si>
+  <si>
+    <t>dhlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어융합대학 소프트웨어학부</t>
+  </si>
+  <si>
+    <t>새빛관 601호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이강훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5773</t>
+  </si>
+  <si>
+    <t>kang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 604호</t>
+  </si>
+  <si>
+    <t>940-5212</t>
+  </si>
+  <si>
+    <t>yhdfly@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 605호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5760</t>
+  </si>
+  <si>
+    <t>whahn@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 606호</t>
+  </si>
+  <si>
+    <t>940-5126</t>
+  </si>
+  <si>
+    <t>kongjh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어융합대학 컴퓨터정보공학부</t>
+  </si>
+  <si>
+    <t>새빛관 701호</t>
+  </si>
+  <si>
+    <t>조재희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5433</t>
+  </si>
+  <si>
+    <t>mis1@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어융합대학 정보융합학부</t>
+  </si>
+  <si>
+    <t>새빛관 702호</t>
+  </si>
+  <si>
+    <t>02-940-8124</t>
+  </si>
+  <si>
+    <t>jaesungpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 703호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5123</t>
+  </si>
+  <si>
+    <t>yhgong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 704호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5130</t>
+  </si>
+  <si>
+    <t>yjshin@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 705호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5128</t>
+  </si>
+  <si>
+    <t>hklee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 706호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이혁준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5127</t>
+  </si>
+  <si>
+    <t>hlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 707호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5215</t>
+  </si>
+  <si>
+    <t>ygchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 801호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5472</t>
+  </si>
+  <si>
+    <t>mgchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 802호</t>
+  </si>
+  <si>
+    <t>940-8143</t>
+  </si>
+  <si>
+    <t>hyunkkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 803호</t>
+  </si>
+  <si>
+    <t>940-5761</t>
+  </si>
+  <si>
+    <t>ljhar@kw.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">새빛관 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8112</t>
+  </si>
+  <si>
+    <t>yglee96@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 806호</t>
+  </si>
+  <si>
+    <t>김우생</t>
+  </si>
+  <si>
+    <t>940-5217</t>
+  </si>
+  <si>
+    <t>kwsrain@gmail.com</t>
+  </si>
+  <si>
+    <t>새빛관 807호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5471</t>
+  </si>
+  <si>
+    <t>swlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 901호</t>
+  </si>
+  <si>
+    <t>940-8251</t>
+  </si>
+  <si>
+    <t>parkcheolsoo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 902호</t>
+  </si>
+  <si>
+    <t>940-5774</t>
+  </si>
+  <si>
+    <t>tskim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 903호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8265</t>
+  </si>
+  <si>
+    <t>hyhwang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 904호</t>
+  </si>
+  <si>
+    <t>940-8674</t>
+  </si>
+  <si>
+    <t>kihoonlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 905호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8371</t>
+  </si>
+  <si>
+    <t>joonhwan.yi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 906호</t>
+  </si>
+  <si>
+    <t>940-5470</t>
+  </si>
+  <si>
+    <t>dgsim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>새빛관 907호</t>
+  </si>
+  <si>
+    <t>이종용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5289</t>
+  </si>
+  <si>
+    <t>jyonglee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 406호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5290</t>
+  </si>
+  <si>
+    <t>shlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 407호</t>
+  </si>
+  <si>
+    <t>940-5292</t>
+  </si>
+  <si>
+    <t>myshon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 603-2호</t>
+  </si>
+  <si>
+    <t>정계동</t>
+  </si>
+  <si>
+    <t>940-5288</t>
+  </si>
+  <si>
+    <t>gdchung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 603-5호</t>
+  </si>
+  <si>
+    <t>940-5287</t>
+  </si>
+  <si>
+    <t>leesh58@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 604호</t>
+  </si>
+  <si>
+    <t>이강성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5284</t>
+  </si>
+  <si>
+    <t>gslee0115@gmail.com</t>
+  </si>
+  <si>
+    <t>연구관 605</t>
+  </si>
+  <si>
+    <t>김충혁</t>
+  </si>
+  <si>
+    <t>940-5291</t>
+  </si>
+  <si>
+    <t>hyeokkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 606호</t>
+  </si>
+  <si>
+    <t>940-8324</t>
+  </si>
+  <si>
+    <t>kybaik@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관 B104호</t>
+  </si>
+  <si>
+    <t>940-5286</t>
+  </si>
+  <si>
+    <t>shyang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>연구관601호, 704호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5247</t>
+  </si>
+  <si>
+    <t>bhkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 410호</t>
+  </si>
+  <si>
+    <t>이윤미</t>
+  </si>
+  <si>
+    <t>ymlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 411호</t>
+  </si>
+  <si>
+    <t>940-5627</t>
+  </si>
+  <si>
+    <t>jhshin@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 412호</t>
+  </si>
+  <si>
+    <t>전흥배</t>
+  </si>
+  <si>
+    <t>940-5583</t>
+  </si>
+  <si>
+    <t>hbj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 413호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5243</t>
+  </si>
+  <si>
+    <t>rchang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 414호</t>
+  </si>
+  <si>
+    <t>김인태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5248</t>
+  </si>
+  <si>
+    <t>itkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 415호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5233</t>
+  </si>
+  <si>
+    <t>gscho@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 503호</t>
+  </si>
+  <si>
+    <t>940-5479</t>
+  </si>
+  <si>
+    <t>gckwon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 504-1호</t>
+  </si>
+  <si>
+    <t>940-5234</t>
+  </si>
+  <si>
+    <t>ykikim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 504호</t>
+  </si>
+  <si>
+    <t>940-5237</t>
+  </si>
+  <si>
+    <t>bcpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 511</t>
+  </si>
+  <si>
+    <t>940-5236</t>
+  </si>
+  <si>
+    <t>ehchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 514호/ 다산재 101호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정난주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5615</t>
+  </si>
+  <si>
+    <t>jung.ranju@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 515호</t>
+  </si>
+  <si>
+    <t>940-5227</t>
+  </si>
+  <si>
+    <t>jinwoolee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 수학과</t>
+  </si>
+  <si>
+    <t>옥의관 601-2호</t>
+  </si>
+  <si>
+    <t>940-5226</t>
+  </si>
+  <si>
+    <t>mher@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 603호</t>
+  </si>
+  <si>
+    <t>940-5628</t>
+  </si>
+  <si>
+    <t>smkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 604호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8292</t>
+  </si>
+  <si>
+    <t>hoseoklee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 606-1</t>
+  </si>
+  <si>
+    <t>940-5221</t>
+  </si>
+  <si>
+    <t>yhkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 606-1호</t>
+  </si>
+  <si>
+    <t>최윤철</t>
+  </si>
+  <si>
+    <t>940-5225</t>
+  </si>
+  <si>
+    <t>yuncherl@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 606호</t>
+  </si>
+  <si>
+    <t>940-5222</t>
+  </si>
+  <si>
+    <t>hsyi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 703호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영권</t>
+  </si>
+  <si>
+    <t>940-5405</t>
+  </si>
+  <si>
+    <t>yksong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 704호</t>
+  </si>
+  <si>
+    <t>이도남</t>
+  </si>
+  <si>
+    <t>02-940-5658</t>
+  </si>
+  <si>
+    <t>donamlee@hanmail.net</t>
+  </si>
+  <si>
+    <t>옥의관 705호</t>
+  </si>
+  <si>
+    <t>940-8296</t>
+  </si>
+  <si>
+    <t>yrkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 706-1호</t>
+  </si>
+  <si>
+    <t>gyungp@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 712호</t>
+  </si>
+  <si>
+    <t>940-8320</t>
+  </si>
+  <si>
+    <t>hjang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 804-1</t>
+  </si>
+  <si>
+    <t>940-5207</t>
+  </si>
+  <si>
+    <t>govols@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 스포츠융합과학과</t>
+  </si>
+  <si>
+    <t>옥의관 804호</t>
+  </si>
+  <si>
+    <t>최철순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5205</t>
+  </si>
+  <si>
+    <t>choi1234@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 805</t>
+  </si>
+  <si>
+    <t>940-5536</t>
+  </si>
+  <si>
+    <t>okjinlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 806-1</t>
+  </si>
+  <si>
+    <t>940-8321</t>
+  </si>
+  <si>
+    <t>winner@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 811호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8109</t>
+  </si>
+  <si>
+    <t>kwmusic@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관 811호</t>
+  </si>
+  <si>
+    <t>940-8629</t>
+  </si>
+  <si>
+    <t>parkbj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관501호</t>
+  </si>
+  <si>
+    <t>이종우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5228</t>
+  </si>
+  <si>
+    <t>jlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관602호</t>
+  </si>
+  <si>
+    <t>940-8368</t>
+  </si>
+  <si>
+    <t>tkkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>옥의관605호</t>
+  </si>
+  <si>
+    <t>940-8372</t>
+  </si>
+  <si>
+    <t>jhlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전기공학과</t>
+  </si>
+  <si>
+    <t>참503</t>
+  </si>
+  <si>
+    <t>940-5193</t>
+  </si>
+  <si>
+    <t>hwlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>공과대학 건축공학과</t>
+  </si>
+  <si>
+    <t>참빛관 1001호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신유진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5198</t>
+  </si>
+  <si>
+    <t>hyunga@daisy.kwangwoon.ac.kr</t>
+  </si>
+  <si>
+    <t>공과대학 건축학과</t>
+  </si>
+  <si>
+    <t>참빛관 1007호</t>
+  </si>
+  <si>
+    <t>940-5195</t>
+  </si>
+  <si>
+    <t>whyi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 1012호</t>
+  </si>
+  <si>
+    <t>최주엽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5143</t>
+  </si>
+  <si>
+    <t>juyeop@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 301호</t>
+  </si>
+  <si>
+    <t>940-5142</t>
+  </si>
+  <si>
+    <t>keonyi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 302호</t>
+  </si>
+  <si>
+    <t>안창범</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5148</t>
+  </si>
+  <si>
+    <t>cbahn@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 303호</t>
+  </si>
+  <si>
+    <t>940-5147</t>
+  </si>
+  <si>
+    <t>hjlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 304호</t>
+  </si>
+  <si>
+    <t>940-5146</t>
+  </si>
+  <si>
+    <t>sgjeong@daisy.kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 305호</t>
+  </si>
+  <si>
+    <t>정용식</t>
+  </si>
+  <si>
+    <t>940-5184</t>
+  </si>
+  <si>
+    <t>yschung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 401호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5113</t>
+  </si>
+  <si>
+    <t>jaepark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 403호</t>
+  </si>
+  <si>
+    <t>김정근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5437</t>
+  </si>
+  <si>
+    <t>junggun@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자공학과</t>
+  </si>
+  <si>
+    <t>참빛관 407-1호</t>
+  </si>
+  <si>
+    <t>심준섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8671</t>
+  </si>
+  <si>
+    <t>shim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 407호</t>
+  </si>
+  <si>
+    <t>940-5165</t>
+  </si>
+  <si>
+    <t>leeds@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 407호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5478</t>
+  </si>
+  <si>
+    <t>yseo71@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 413호</t>
+  </si>
+  <si>
+    <t>허돈</t>
+  </si>
+  <si>
+    <t>940-5473</t>
+  </si>
+  <si>
+    <t>dhur@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 501호</t>
+  </si>
+  <si>
+    <t>940-8373</t>
+  </si>
+  <si>
+    <t>hskim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 502호</t>
+  </si>
+  <si>
+    <t>940-5762</t>
+  </si>
+  <si>
+    <t>ssh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 506호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5582</t>
+  </si>
+  <si>
+    <t>wchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 601호</t>
+  </si>
+  <si>
+    <t>940-8362</t>
+  </si>
+  <si>
+    <t>yhseo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 602호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5211</t>
+  </si>
+  <si>
+    <t>bjpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>오혁준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5132</t>
+  </si>
+  <si>
+    <t>hj_oh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자통신공학과</t>
+  </si>
+  <si>
+    <t>참빛관 607호</t>
+  </si>
+  <si>
+    <t>임한상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5587</t>
+  </si>
+  <si>
+    <t>lhs@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 612-1호</t>
+  </si>
+  <si>
+    <t>신원호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5213</t>
+  </si>
+  <si>
+    <t>weonho@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전자재료공학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참빛관 613호</t>
+  </si>
+  <si>
+    <t>이승형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5441</t>
+  </si>
+  <si>
+    <t>rhee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 701호</t>
+  </si>
+  <si>
+    <t>940-5442</t>
+  </si>
+  <si>
+    <t>hwkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 702</t>
+  </si>
+  <si>
+    <t>940-5138</t>
+  </si>
+  <si>
+    <t>ychung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 703호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오승준</t>
+  </si>
+  <si>
+    <t>940-5102</t>
+  </si>
+  <si>
+    <t>sjoh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 704호</t>
+  </si>
+  <si>
+    <t>940-5104</t>
+  </si>
+  <si>
+    <t>hcpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 705호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정용진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5551</t>
+  </si>
+  <si>
+    <t>yjjeong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 802/810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정광수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5134</t>
+  </si>
+  <si>
+    <t>kchung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 803호</t>
+  </si>
+  <si>
+    <t>고형화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5137</t>
+  </si>
+  <si>
+    <t>hhkoh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 804호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5136</t>
+  </si>
+  <si>
+    <t>jychang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 805호</t>
+  </si>
+  <si>
+    <t>940-5513</t>
+  </si>
+  <si>
+    <t>esong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 806호</t>
+  </si>
+  <si>
+    <t>이쉬마노프</t>
+  </si>
+  <si>
+    <t>940-5162</t>
+  </si>
+  <si>
+    <t>farruh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 807</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영석</t>
+  </si>
+  <si>
+    <t>940-5186</t>
+  </si>
+  <si>
+    <t>yschoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 807-1</t>
+  </si>
+  <si>
+    <t>940-5552</t>
+  </si>
+  <si>
+    <t>min@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 808호</t>
+  </si>
+  <si>
+    <t>양훈기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5187</t>
+  </si>
+  <si>
+    <t>hgyang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 901호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5167</t>
+  </si>
+  <si>
+    <t>dwkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 902호</t>
+  </si>
+  <si>
+    <t>박면주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5188</t>
+  </si>
+  <si>
+    <t>mjpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 903호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5168</t>
+  </si>
+  <si>
+    <t>jgha@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 904호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하태준</t>
+  </si>
+  <si>
+    <t>940-8678</t>
+  </si>
+  <si>
+    <t>tjha@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 905호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5166</t>
+  </si>
+  <si>
+    <t>jykim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 906호실</t>
+  </si>
+  <si>
+    <t>황인찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8675</t>
+  </si>
+  <si>
+    <t>ihwang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 909호</t>
+  </si>
+  <si>
+    <t>940-5163</t>
+  </si>
+  <si>
+    <t>chowj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관 910호/참빛관 B104</t>
+  </si>
+  <si>
+    <t>940-5194</t>
+  </si>
+  <si>
+    <t>stpkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관1003호</t>
+  </si>
+  <si>
+    <t>940-5196</t>
+  </si>
+  <si>
+    <t>ksj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>참빛관1005호</t>
+  </si>
+  <si>
+    <t>신만중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5524</t>
+  </si>
+  <si>
+    <t>superlaw@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 법학부</t>
+  </si>
+  <si>
+    <t>한울관 508호</t>
+  </si>
+  <si>
+    <t>940-5402</t>
+  </si>
+  <si>
+    <t>kwon99@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 509호</t>
+  </si>
+  <si>
+    <t>940-5542</t>
+  </si>
+  <si>
+    <t>jshen@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 국제학부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한울관 510호</t>
+  </si>
+  <si>
+    <t>940-8359</t>
+  </si>
+  <si>
+    <t>spark2521@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 국어국문학과</t>
+  </si>
+  <si>
+    <t>한울관 511호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손주영</t>
+  </si>
+  <si>
+    <t>940-8367</t>
+  </si>
+  <si>
+    <t>jys31@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 513호</t>
+  </si>
+  <si>
+    <t>940-8369</t>
+  </si>
+  <si>
+    <t>sylee27@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 514호</t>
+  </si>
+  <si>
+    <t>940-5537</t>
+  </si>
+  <si>
+    <t>mcritic@daum.net</t>
+  </si>
+  <si>
+    <t>한울관 516호</t>
+  </si>
+  <si>
+    <t>최영훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5337</t>
+  </si>
+  <si>
+    <t>cyhoon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 행정학과</t>
+  </si>
+  <si>
+    <t>한울관 518호</t>
+  </si>
+  <si>
+    <t>도승연</t>
+  </si>
+  <si>
+    <t>940-8358</t>
+  </si>
+  <si>
+    <t>coraa@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 519호</t>
+  </si>
+  <si>
+    <t>940-8363</t>
+  </si>
+  <si>
+    <t>kisookdo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 520호</t>
+  </si>
+  <si>
+    <t>박시진</t>
+  </si>
+  <si>
+    <t>940-5775</t>
+  </si>
+  <si>
+    <t>sjpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 행정학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한울관 521호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진경</t>
+  </si>
+  <si>
+    <t>940-5338</t>
+  </si>
+  <si>
+    <t>whitenap@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 523호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이혜영</t>
+  </si>
+  <si>
+    <t>940-5332</t>
+  </si>
+  <si>
+    <t>hylee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 524호</t>
+  </si>
+  <si>
+    <t>김백영</t>
+  </si>
+  <si>
+    <t>940-8365</t>
+  </si>
+  <si>
+    <t>kimby@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 526호</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>940-8360</t>
+  </si>
+  <si>
+    <t>fidus@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 527호</t>
+  </si>
+  <si>
+    <t>940-5481</t>
+  </si>
+  <si>
+    <t>junbook@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 동북아문화산업학부</t>
+  </si>
+  <si>
+    <t>한울관 603호</t>
+  </si>
+  <si>
+    <t>홍의</t>
+  </si>
+  <si>
+    <t>02-940-5328</t>
+  </si>
+  <si>
+    <t>euihong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>경영대학 국제통상학부</t>
+  </si>
+  <si>
+    <t>한울관 604호</t>
+  </si>
+  <si>
+    <t>02-940-5434</t>
+  </si>
+  <si>
+    <t>chchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 605호</t>
+  </si>
+  <si>
+    <t>940-5341</t>
+  </si>
+  <si>
+    <t>eksgk2@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 606호</t>
+  </si>
+  <si>
+    <t>940-5347</t>
+  </si>
+  <si>
+    <t>poirot21@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 609호</t>
+  </si>
+  <si>
+    <t>940-5344</t>
+  </si>
+  <si>
+    <t>lcw@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 610호</t>
+  </si>
+  <si>
+    <t>유선봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5401</t>
+  </si>
+  <si>
+    <t>sbyu@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 615호</t>
+  </si>
+  <si>
+    <t>940-5765</t>
+  </si>
+  <si>
+    <t>sooj@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 616호</t>
+  </si>
+  <si>
+    <t>조규진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5326</t>
+  </si>
+  <si>
+    <t>joe5326@kw.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF727272"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한울관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF727272"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 616</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF727272"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권태한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-940-5323</t>
+  </si>
+  <si>
+    <t>thkwon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 618호</t>
+  </si>
+  <si>
+    <t>940-5755</t>
+  </si>
+  <si>
+    <t>sunji1@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 법학부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한울관 619호</t>
+  </si>
+  <si>
+    <t>김진곤</t>
+  </si>
+  <si>
+    <t>940-5346</t>
+  </si>
+  <si>
+    <t>gonkims@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 620호</t>
+  </si>
+  <si>
+    <t>940-5545</t>
+  </si>
+  <si>
+    <t>kms@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 623호</t>
+  </si>
+  <si>
+    <t>940-5423</t>
+  </si>
+  <si>
+    <t>sanglee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 산업심리학과</t>
+  </si>
+  <si>
+    <t>한울관 624호</t>
+  </si>
+  <si>
+    <t>940-5422</t>
+  </si>
+  <si>
+    <t>tyyoo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 625호</t>
+  </si>
+  <si>
+    <t>940-5426</t>
+  </si>
+  <si>
+    <t>tyounghan@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 626</t>
+  </si>
+  <si>
+    <t>940-5424</t>
+  </si>
+  <si>
+    <t>tak@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 627</t>
+  </si>
+  <si>
+    <t>이형철</t>
+  </si>
+  <si>
+    <t>940-5425</t>
+  </si>
+  <si>
+    <t>hyung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 628호</t>
+  </si>
+  <si>
+    <t>940-5546</t>
+  </si>
+  <si>
+    <t>rosebud@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 630호</t>
+  </si>
+  <si>
+    <t>02-940-5311</t>
+  </si>
+  <si>
+    <t>bhlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5543</t>
+  </si>
+  <si>
+    <t>eyoon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정책법학대학 국제학부</t>
+  </si>
+  <si>
+    <t>한울관 631</t>
+  </si>
+  <si>
+    <t>940-5340</t>
+  </si>
+  <si>
+    <t>seo0903@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 632호</t>
+  </si>
+  <si>
+    <t>940-5484</t>
+  </si>
+  <si>
+    <t>sjang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 633호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심상렬</t>
+  </si>
+  <si>
+    <t>02-940-5321</t>
+  </si>
+  <si>
+    <t>srshim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 634호</t>
+  </si>
+  <si>
+    <t>02-940-5327</t>
+  </si>
+  <si>
+    <t>jslim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 635호</t>
+  </si>
+  <si>
+    <t>940-5335</t>
+  </si>
+  <si>
+    <t>nulbo@hanafos.com</t>
+  </si>
+  <si>
+    <t>한울관 701</t>
+  </si>
+  <si>
+    <t>940-5336</t>
+  </si>
+  <si>
+    <t>pparkcg@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 702호</t>
+  </si>
+  <si>
+    <t>940-5429</t>
+  </si>
+  <si>
+    <t>ijlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 영어산업학과</t>
+  </si>
+  <si>
+    <t>한울관 704호</t>
+  </si>
+  <si>
+    <t>940-8322</t>
+  </si>
+  <si>
+    <t>lim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 705호</t>
+  </si>
+  <si>
+    <t>김선웅</t>
+  </si>
+  <si>
+    <t>940-5364</t>
+  </si>
+  <si>
+    <t>swkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 707</t>
+  </si>
+  <si>
+    <t>940-5362</t>
+  </si>
+  <si>
+    <t>hkkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주찬</t>
+  </si>
+  <si>
+    <t>940-5334</t>
+  </si>
+  <si>
+    <t>jckim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 709호</t>
+  </si>
+  <si>
+    <t>940-5353</t>
+  </si>
+  <si>
+    <t>ultravox@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 710호</t>
+  </si>
+  <si>
+    <t>940-5356</t>
+  </si>
+  <si>
+    <t>kiyongchoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 713</t>
+  </si>
+  <si>
+    <t>940-5367</t>
+  </si>
+  <si>
+    <t>sy2@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 국어국문학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한울관 715호</t>
+  </si>
+  <si>
+    <t>940-5352</t>
+  </si>
+  <si>
+    <t>eternity@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 716호</t>
+  </si>
+  <si>
+    <t>02-940-5488</t>
+  </si>
+  <si>
+    <t>paxhclee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 717호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5486</t>
+  </si>
+  <si>
+    <t>gwyokim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 718호</t>
+  </si>
+  <si>
+    <t>940-5377</t>
+  </si>
+  <si>
+    <t>motion@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 719호</t>
+  </si>
+  <si>
+    <t>이종혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8383</t>
+  </si>
+  <si>
+    <t>jonghyuk@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 720호</t>
+  </si>
+  <si>
+    <t>940-5374</t>
+  </si>
+  <si>
+    <t>khbu@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 722호</t>
+  </si>
+  <si>
+    <t>940-5371</t>
+  </si>
+  <si>
+    <t>oes@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 723호</t>
+  </si>
+  <si>
+    <t>940-5275</t>
+  </si>
+  <si>
+    <t>yeran@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 725호</t>
+  </si>
+  <si>
+    <t>김현주</t>
+  </si>
+  <si>
+    <t>940-5376</t>
+  </si>
+  <si>
+    <t>wiseprof@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 726호</t>
+  </si>
+  <si>
+    <t>문상현</t>
+  </si>
+  <si>
+    <t>940-5373</t>
+  </si>
+  <si>
+    <t>shmoon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 727호</t>
+  </si>
+  <si>
+    <t>940-5614</t>
+  </si>
+  <si>
+    <t>sjshin@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 729호실</t>
+  </si>
+  <si>
+    <t>940-5331</t>
+  </si>
+  <si>
+    <t>hchong99@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 730호</t>
+  </si>
+  <si>
+    <t>940-5489</t>
+  </si>
+  <si>
+    <t>jeon@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 731호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정아</t>
+  </si>
+  <si>
+    <t>940-5487</t>
+  </si>
+  <si>
+    <t>jachoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 732호</t>
+  </si>
+  <si>
+    <t>김상연</t>
+  </si>
+  <si>
+    <t>940-5843</t>
+  </si>
+  <si>
+    <t>sangkim9@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관 733호</t>
+  </si>
+  <si>
+    <t>정동훈</t>
+  </si>
+  <si>
+    <t>940-5584</t>
+  </si>
+  <si>
+    <t>donghunc@gmail.com</t>
+  </si>
+  <si>
+    <t>한울관 734호</t>
+  </si>
+  <si>
+    <t>곡효운</t>
+  </si>
+  <si>
+    <t>940-8366</t>
+  </si>
+  <si>
+    <t>xiaoyun@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관517호</t>
+  </si>
+  <si>
+    <t>장정희</t>
+  </si>
+  <si>
+    <t>940-5363</t>
+  </si>
+  <si>
+    <t>chang57@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관601호</t>
+  </si>
+  <si>
+    <t>940-5276</t>
+  </si>
+  <si>
+    <t>jeongik@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한울관721</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>940-5656</t>
+  </si>
+  <si>
+    <t>hbrim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 201호</t>
+  </si>
+  <si>
+    <t>김신우</t>
+  </si>
+  <si>
+    <t>940-5421</t>
+  </si>
+  <si>
+    <t>shinwoo.kim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 산업심리학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한천재 202호</t>
+  </si>
+  <si>
+    <t>940-5579</t>
+  </si>
+  <si>
+    <t>sweetnoh@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 301호</t>
+  </si>
+  <si>
+    <t>임소영</t>
+  </si>
+  <si>
+    <t>940-8248</t>
+  </si>
+  <si>
+    <t>ihm@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 303호</t>
+  </si>
+  <si>
+    <t>940-8217</t>
+  </si>
+  <si>
+    <t>cjongpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5629</t>
+  </si>
+  <si>
+    <t>jeschoi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 304호</t>
+  </si>
+  <si>
+    <t>조선낭</t>
+  </si>
+  <si>
+    <t>940-5777</t>
+  </si>
+  <si>
+    <t>slucy79@gmail.com</t>
+  </si>
+  <si>
+    <t>한천재 401호</t>
+  </si>
+  <si>
+    <t>940-5655</t>
+  </si>
+  <si>
+    <t>in1621@hanmail.net</t>
+  </si>
+  <si>
+    <t>한천재 402호</t>
+  </si>
+  <si>
+    <t>이병관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5427</t>
+  </si>
+  <si>
+    <t>byungkwanlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 403호</t>
+  </si>
+  <si>
+    <t>940-5324</t>
+  </si>
+  <si>
+    <t>minhakim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재 404호</t>
+  </si>
+  <si>
+    <t>940-5477</t>
+  </si>
+  <si>
+    <t>khi@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>한천재204호</t>
+  </si>
+  <si>
+    <t>이정우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5393</t>
+  </si>
+  <si>
+    <t>jwlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 511호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5037</t>
+  </si>
+  <si>
+    <t>kjg@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 514호</t>
+  </si>
+  <si>
+    <t>940-5557</t>
+  </si>
+  <si>
+    <t>chai@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 518-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5122</t>
+  </si>
+  <si>
+    <t>yoonchunjung@naver.com</t>
+  </si>
+  <si>
+    <t>화도관 518-1</t>
+  </si>
+  <si>
+    <t>940-5648</t>
+  </si>
+  <si>
+    <t>kimjinmo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>공과대학 건축학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화도관 520-1</t>
+  </si>
+  <si>
+    <t>940-5474</t>
+  </si>
+  <si>
+    <t>chosy@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 520-2호</t>
+  </si>
+  <si>
+    <t>유정호</t>
+  </si>
+  <si>
+    <t>940-5564</t>
+  </si>
+  <si>
+    <t>myazure@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 520-3호</t>
+  </si>
+  <si>
+    <t>940-8677</t>
+  </si>
+  <si>
+    <t>ypark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 602호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5192</t>
+  </si>
+  <si>
+    <t>shchae@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 606호</t>
+  </si>
+  <si>
+    <t>kdoyoung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 607 호</t>
+  </si>
+  <si>
+    <t>오태현</t>
+  </si>
+  <si>
+    <t>940-8670</t>
+  </si>
+  <si>
+    <t>ohtaehyoun@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 620호</t>
+  </si>
+  <si>
+    <t>정한울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5149</t>
+  </si>
+  <si>
+    <t>hwjeong@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 621호</t>
+  </si>
+  <si>
+    <t>940-5139</t>
+  </si>
+  <si>
+    <t>spark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 627호</t>
+  </si>
+  <si>
+    <t>940-5767</t>
+  </si>
+  <si>
+    <t>cbsohn@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 628호</t>
+  </si>
+  <si>
+    <t>안재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5185</t>
+  </si>
+  <si>
+    <t>jaehahn@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 630호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5637</t>
+  </si>
+  <si>
+    <t>kimjyo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 632호</t>
+  </si>
+  <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5297</t>
+  </si>
+  <si>
+    <t>jihoonlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 635호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현근</t>
+  </si>
+  <si>
+    <t>940-5626</t>
+  </si>
+  <si>
+    <t>leeh1@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 639호</t>
+  </si>
+  <si>
+    <t>정영욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5476</t>
+  </si>
+  <si>
+    <t>yuchung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관 640호</t>
+  </si>
+  <si>
+    <t>양원직</t>
+  </si>
+  <si>
+    <t>wjyang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관509호</t>
+  </si>
+  <si>
+    <t>940-5133</t>
+  </si>
+  <si>
+    <t>chanpark@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>화도관638호</t>
+  </si>
+  <si>
+    <t>김영억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5404</t>
+  </si>
+  <si>
+    <t>kimyoungok@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>정인영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5255</t>
+  </si>
+  <si>
+    <t>maybreez@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5567</t>
+  </si>
+  <si>
+    <t>jinyoung@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>김형국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5574</t>
+  </si>
+  <si>
+    <t>hkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5554</t>
+  </si>
+  <si>
+    <t>jkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5145</t>
+  </si>
+  <si>
+    <t>ealab@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>이기백</t>
+  </si>
+  <si>
+    <t>940-8375</t>
+  </si>
+  <si>
+    <t>kblee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>전자정보공과대학 전기공학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최창호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5566</t>
+  </si>
+  <si>
+    <t>choi1967@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>02-940-5771</t>
+  </si>
+  <si>
+    <t>tlee@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>바이오메디컬엔지니어링 연구실</t>
+  </si>
+  <si>
+    <t>940-5235</t>
+  </si>
+  <si>
+    <t>yseo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>조재원</t>
+  </si>
+  <si>
+    <t>940-5238</t>
+  </si>
+  <si>
+    <t>jcho@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>자연과학대학 전자바이오물리학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-8257</t>
+  </si>
+  <si>
+    <t>koo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5269</t>
+  </si>
+  <si>
+    <t>youngin915@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-8100</t>
+  </si>
+  <si>
+    <t>kcson@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5357</t>
+  </si>
+  <si>
+    <t>gyyeo@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>손가연</t>
+  </si>
+  <si>
+    <t>02-940-5358</t>
+  </si>
+  <si>
+    <t>gson@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>인문사회과학대학 영어산업학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>940-5482</t>
+  </si>
+  <si>
+    <t>hgkim@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5475</t>
+  </si>
+  <si>
+    <t>twkang@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>940-5343</t>
+  </si>
+  <si>
+    <t>hjk1014@kw.ac.kr</t>
+  </si>
+  <si>
+    <t>박설연</t>
+  </si>
+  <si>
+    <t>snowlotus@kw.ac.kr</t>
+  </si>
 </sst>
 </file>
 
@@ -5503,7 +8901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5559,8 +8957,128 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans Mono CJK JP Bold"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="NGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="NGothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF777777"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF727272"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF727272"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF727272"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5F5E61"/>
+      <name val="Wfont_4561e3_212da937ecb54c9381"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5579,8 +9097,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5603,13 +9127,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E5E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5718,9 +9282,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6035,8 +9663,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -35645,4 +39273,6231 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7B8B61-ADC4-43D9-9426-D1CCC04355BF}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G298"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1">
+      <c r="A1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" thickBot="1">
+      <c r="A2" s="36" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A3" s="36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A4" s="36" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A5" s="36" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A6" s="36" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A8" s="36" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A9" s="36" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" thickBot="1">
+      <c r="A10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A11" s="36" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A15" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A16" s="36" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A18" s="36" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A19" s="36" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A20" s="36" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A21" s="36" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A23" s="36" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A24" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A25" s="36" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A26" s="36" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A27" s="36" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickBot="1">
+      <c r="A28" s="36" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A29" s="36" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" thickBot="1">
+      <c r="A31" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A33" s="36" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" thickBot="1">
+      <c r="A34" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A35" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A37" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A38" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A39" s="36" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A40" s="36" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A41" s="36" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A42" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A43" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A44" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A45" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A46" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A47" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A48" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A49" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" thickBot="1">
+      <c r="A50" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A51" s="36" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A52" s="36" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A53" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A54" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="35.4" thickBot="1">
+      <c r="A55" s="36" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" thickBot="1">
+      <c r="A56" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" thickBot="1">
+      <c r="A57" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G57" s="46" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A58" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A59" s="36" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A60" s="36" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" thickBot="1">
+      <c r="A61" s="36" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" thickBot="1">
+      <c r="A62" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" thickBot="1">
+      <c r="A63" s="36" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A64" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A65" s="36" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18" thickBot="1">
+      <c r="A66" s="36" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A67" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A68" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A69" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A70" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A71" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A72" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A73" s="36" t="s">
+        <v>652</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A74" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" thickBot="1">
+      <c r="A75" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A76" s="36" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A77" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A78" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18" thickBot="1">
+      <c r="A79" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A80" s="36" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A81" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A82" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A83" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A84" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A85" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A86" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A87" s="36" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A88" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A89" s="36" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A90" s="36" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A91" s="36" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A92" s="36" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A93" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A94" s="36" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A95" s="36" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A96" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A97" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F97" s="38" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A98" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F98" s="38" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A99" s="36" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A100" s="36" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" thickBot="1">
+      <c r="A101" s="36" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A102" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" thickBot="1">
+      <c r="A103" s="36" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A104" s="36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F104" s="38" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A105" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A106" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A107" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A108" s="36" t="s">
+        <v>997</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A109" s="36" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A110" s="36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F110" s="38" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A111" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A112" s="36" t="s">
+        <v>987</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A113" s="36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F113" s="38" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A114" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F114" s="40" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A115" s="36" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D115" s="37" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F115" s="40" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18" thickBot="1">
+      <c r="A116" s="36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F116" s="38" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A117" s="36" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A118" s="36" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A119" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A120" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F120" s="38" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A121" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A122" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F122" s="38" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A123" s="36" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F123" s="38" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A124" s="36" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F124" s="38" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A125" s="36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F125" s="38" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A126" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D126" s="37" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F126" s="40" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A127" s="36" t="s">
+        <v>960</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D127" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18" thickBot="1">
+      <c r="A128" s="36" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E128" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A129" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D129" s="37" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18" thickBot="1">
+      <c r="A130" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E130" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F130" s="38" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A131" s="36" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A132" s="36" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F132" s="38" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18" thickBot="1">
+      <c r="A133" s="36" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A134" s="36" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F134" s="38" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A135" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E135" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A136" s="36" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E136" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F136" s="38" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" thickBot="1">
+      <c r="A137" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F137" s="38" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A138" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D138" s="37" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F138" s="38" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A139" s="36" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D139" s="37" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F139" s="38" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A140" s="36" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D140" s="37" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F140" s="38" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A141" s="36" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F141" s="38" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A142" s="36" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D142" s="37" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F142" s="38" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A143" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D143" s="37" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E143" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F143" s="38" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A144" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D144" s="37" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E144" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F144" s="38" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18" thickBot="1">
+      <c r="A145" s="36" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D145" s="37" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F145" s="38" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A146" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D146" s="37" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E146" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18" thickBot="1">
+      <c r="A147" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D147" s="37" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E147" s="38" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F147" s="38" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A148" s="36" t="s">
+        <v>657</v>
+      </c>
+      <c r="B148" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D148" s="37" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E148" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F148" s="38" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A149" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B149" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D149" s="37" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E149" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F149" s="38" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A150" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D150" s="37" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E150" s="38" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F150" s="38" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A151" s="36" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B151" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D151" s="37" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E151" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F151" s="38" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" thickBot="1">
+      <c r="A152" s="36" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B152" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E152" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F152" s="38" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A153" s="36" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F153" s="38" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18" thickBot="1">
+      <c r="A154" s="36" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F154" s="48" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A155" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D155" s="37" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E155" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F155" s="38" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A156" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D156" s="37" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E156" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F156" s="38" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18" thickBot="1">
+      <c r="A157" s="36" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F157" s="38" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A158" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F158" s="38" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A159" s="36" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D159" s="37" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A160" s="36" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F160" s="38" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A161" s="36" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F161" s="38" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A162" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D162" s="37" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F162" s="38" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A163" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E163" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F163" s="38" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="35.4" thickBot="1">
+      <c r="A164" s="36" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D164" s="37" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F164" s="38" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A165" s="36" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D165" s="37" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F165" s="38" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18" thickBot="1">
+      <c r="A166" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D166" s="37" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F166" s="38" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A167" s="36" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F167" s="48" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A168" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D168" s="37" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E168" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F168" s="38" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A169" s="36" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F169" s="38" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18" thickBot="1">
+      <c r="A170" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D170" s="37" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F170" s="38" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="18" thickBot="1">
+      <c r="A171" s="36" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D171" s="37" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F171" s="38" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A172" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F172" s="38" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A173" s="36" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E173" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F173" s="38" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A174" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F174" s="38" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A175" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B175" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F175" s="50" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18" thickBot="1">
+      <c r="A176" s="36" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F176" s="38" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A177" s="36" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F177" s="38" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A178" s="36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E178" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F178" s="51" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A179" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D179" s="37" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F179" s="38" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A180" s="36" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B180" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C180" s="37" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E180" s="38" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F180" s="38" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A181" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B181" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D181" s="37" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E181" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F181" s="38" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A182" s="36" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D182" s="37" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E182" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F182" s="40" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A183" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B183" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D183" s="37" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E183" s="38" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F183" s="38" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A184" s="36" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D184" s="37" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E184" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F184" s="38" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A185" s="36" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B185" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D185" s="37" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E185" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A186" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B186" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D186" s="37" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E186" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F186" s="38" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A187" s="36" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D187" s="37" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E187" s="38" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F187" s="38" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A188" s="36" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D188" s="37" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F188" s="38" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A189" s="36" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B189" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D189" s="37" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E189" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F189" s="38" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A190" s="36" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B190" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D190" s="37" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E190" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F190" s="38" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="18" thickBot="1">
+      <c r="A191" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B191" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E191" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F191" s="48" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="21" thickBot="1">
+      <c r="A192" s="36" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B192" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C192" s="52" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D192" s="52" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E192" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F192" s="38" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A193" s="36" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D193" s="37" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E193" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F193" s="53" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A194" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D194" s="37" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E194" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F194" s="38" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A195" s="36" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B195" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E195" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F195" s="51" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A196" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="B196" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E196" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F196" s="51" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="18" thickBot="1">
+      <c r="A197" s="36" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E197" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F197" s="38" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="18" thickBot="1">
+      <c r="A198" s="36" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E198" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F198" s="38" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="21" thickBot="1">
+      <c r="A199" s="36" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B199" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C199" s="52" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D199" s="52" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E199" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F199" s="38" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A200" s="36" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B200" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C200" s="37" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D200" s="37" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E200" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F200" s="54" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A201" s="36" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B201" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D201" s="37" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E201" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F201" s="38" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A202" s="36" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E202" s="38" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F202" s="51" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A203" s="36" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E203" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F203" s="38" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="21" thickBot="1">
+      <c r="A204" s="36" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B204" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C204" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D204" s="52" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E204" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F204" s="38" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A205" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E205" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F205" s="38" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="18" thickBot="1">
+      <c r="A206" s="36" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B206" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E206" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F206" s="38" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A207" s="36" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B207" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E207" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F207" s="38" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="18" thickBot="1">
+      <c r="A208" s="36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E208" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F208" s="38" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A209" s="36" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E209" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F209" s="38" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="21" thickBot="1">
+      <c r="A210" s="36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B210" s="52" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C210" s="52" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D210" s="52" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E210" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F210" s="38" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A211" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E211" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F211" s="38" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A212" s="36" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E212" s="38" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F212" s="38" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A213" s="36" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E213" s="38" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F213" s="48" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A214" s="36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E214" s="38" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F214" s="38" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A215" s="36" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E215" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F215" s="38" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="18" thickBot="1">
+      <c r="A216" s="36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D216" s="37" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E216" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F216" s="38" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A217" s="36" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E217" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F217" s="38" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A218" s="36" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D218" s="37" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E218" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F218" s="38" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18" thickBot="1">
+      <c r="A219" s="36" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C219" s="37" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D219" s="37" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E219" s="38" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F219" s="38" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18" thickBot="1">
+      <c r="A220" s="36" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C220" s="37" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D220" s="37" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E220" s="38" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F220" s="38" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A221" s="36" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B221" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E221" s="38" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F221" s="38" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A222" s="36" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C222" s="37" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D222" s="37" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E222" s="38" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F222" s="38" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A223" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C223" s="37" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D223" s="37" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E223" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F223" s="38" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A224" s="36" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C224" s="37" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D224" s="37" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E224" s="38" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F224" s="38" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A225" s="36" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B225" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C225" s="37" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D225" s="37" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E225" s="38" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F225" s="38" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="18" thickBot="1">
+      <c r="A226" s="36" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B226" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D226" s="37" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E226" s="38" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F226" s="38" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="21" thickBot="1">
+      <c r="A227" s="36" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B227" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C227" s="52" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D227" s="52" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F227" s="38" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A228" s="36" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B228" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C228" s="37" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D228" s="37" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E228" s="38" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F228" s="38" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A229" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C229" s="37" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D229" s="37" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E229" s="38" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F229" s="38" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A230" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="B230" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C230" s="37" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D230" s="37" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E230" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F230" s="38" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A231" s="36" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D231" s="37" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E231" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F231" s="38" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="18" thickBot="1">
+      <c r="A232" s="36" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B232" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C232" s="37" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D232" s="37" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E232" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F232" s="38" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="18" thickBot="1">
+      <c r="A233" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="B233" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C233" s="37" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D233" s="37" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E233" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F233" s="38" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A234" s="36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B234" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C234" s="37" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D234" s="37" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E234" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F234" s="38" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A235" s="36" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B235" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C235" s="37" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D235" s="37" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E235" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F235" s="41" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A236" s="36" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B236" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D236" s="37" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E236" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F236" s="38" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A237" s="36" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B237" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D237" s="37" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E237" s="38" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F237" s="38" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A238" s="36" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B238" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C238" s="37" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E238" s="38" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F238" s="38" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="18" thickBot="1">
+      <c r="A239" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B239" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C239" s="37" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D239" s="37" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E239" s="38" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F239" s="38" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="21" thickBot="1">
+      <c r="A240" s="36" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B240" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C240" s="52" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D240" s="52" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E240" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F240" s="38" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A241" s="36" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B241" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C241" s="37" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D241" s="37" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E241" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F241" s="55" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A242" s="36" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B242" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C242" s="37" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D242" s="37" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E242" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F242" s="38" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A243" s="36" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B243" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D243" s="37" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E243" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="21" thickBot="1">
+      <c r="A244" s="36" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B244" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C244" s="52" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D244" s="52" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E244" s="38" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A245" s="36" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B245" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D245" s="37" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F245" s="38" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A246" s="36" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B246" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D246" s="37" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E246" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A247" s="36" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B247" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C247" s="37" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D247" s="37" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E247" s="38" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F247" s="38" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A248" s="36" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B248" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C248" s="37" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D248" s="37" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E248" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F248" s="38" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="18" thickBot="1">
+      <c r="A249" s="36" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B249" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C249" s="37" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D249" s="37" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E249" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F249" s="38" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A250" s="36" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B250" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D250" s="37" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E250" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F250" s="38" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A251" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B251" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D251" s="37" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E251" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F251" s="38" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A252" s="36" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B252" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C252" s="37" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D252" s="37" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E252" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F252" s="38" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A253" s="36" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B253" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C253" s="37" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D253" s="37" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E253" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F253" s="40" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A254" s="36" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B254" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C254" s="37" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D254" s="37" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E254" s="38" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F254" s="38" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A255" s="36" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B255" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D255" s="37" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E255" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F255" s="40" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="18" thickBot="1">
+      <c r="A256" s="36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B256" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C256" s="37" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D256" s="37" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E256" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F256" s="38" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A257" s="36" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B257" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C257" s="37" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D257" s="37" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E257" s="38" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F257" s="38" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="18" thickBot="1">
+      <c r="A258" s="36" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B258" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C258" s="37" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D258" s="37" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E258" s="38" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F258" s="38" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="18" thickBot="1">
+      <c r="A259" s="36" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B259" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C259" s="37" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D259" s="37" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E259" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F259" s="38" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A260" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="B260" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C260" s="37" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D260" s="37" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E260" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F260" s="38" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A261" s="36" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B261" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C261" s="37" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D261" s="37" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E261" s="38" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F261" s="38" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A262" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B262" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C262" s="37" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D262" s="37" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E262" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F262" s="38" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A263" s="36" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B263" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C263" s="37" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D263" s="37" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E263" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F263" s="38" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A264" s="36" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B264" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C264" s="37" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D264" s="37" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E264" s="38" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F264" s="38" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A265" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="B265" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C265" s="37" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D265" s="37" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E265" s="38" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F265" s="38" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A266" s="36" t="s">
+        <v>844</v>
+      </c>
+      <c r="B266" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E266" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F266" s="38" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A267" s="36" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B267" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C267" s="37" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D267" s="37" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E267" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F267" s="38" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A268" s="36" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B268" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C268" s="37" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D268" s="37" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E268" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F268" s="38" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A269" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B269" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C269" s="37" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D269" s="37" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E269" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F269" s="38" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A270" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="B270" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C270" s="37" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D270" s="37" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E270" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F270" s="38" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A271" s="36" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B271" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C271" s="37" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D271" s="37" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E271" s="38" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F271" s="38" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A272" s="36" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B272" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C272" s="37" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D272" s="37" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E272" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F272" s="38" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A273" s="36" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B273" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C273" s="37" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D273" s="37" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E273" s="38" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F273" s="38" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A274" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B274" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C274" s="37" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D274" s="37" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E274" s="38" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F274" s="38" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A275" s="36" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B275" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C275" s="37" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D275" s="37" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E275" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F275" s="48" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A276" s="36" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B276" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D276" s="37" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E276" s="38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F276" s="50" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A277" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="B277" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D277" s="37" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E277" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F277" s="38" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A278" s="36" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B278" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C278" s="37" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D278" s="37" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E278" s="38" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A279" s="36" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B279" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C279" s="37" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D279" s="37" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E279" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F279" s="38"/>
+    </row>
+    <row r="280" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A280" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B280" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C280" s="37" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D280" s="37" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E280" s="38" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="18" thickBot="1">
+      <c r="A281" s="36" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B281" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C281" s="37" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D281" s="37" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E281" s="38" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F281" s="56"/>
+    </row>
+    <row r="282" spans="1:7" ht="18" thickBot="1">
+      <c r="A282" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B282" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C282" s="37" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D282" s="37" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E282" s="38" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A283" s="36" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B283" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C283" s="37" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D283" s="37" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E283" s="38" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A284" s="36" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B284" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C284" s="37" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D284" s="37" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E284" s="38" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="19.8" thickBot="1">
+      <c r="A285" s="36" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B285" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C285" s="37" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D285" s="37" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E285" s="38" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="18" thickBot="1">
+      <c r="A286" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B286" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C286" s="37" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D286" s="37" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E286" s="38" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F286" s="38"/>
+      <c r="G286" s="45" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="18" thickBot="1">
+      <c r="A287" s="36" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B287" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C287" s="37" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D287" s="37" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E287" s="38" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="18" thickBot="1">
+      <c r="A288" s="36" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B288" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D288" s="37" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="18" thickBot="1">
+      <c r="A289" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B289" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C289" s="37" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D289" s="37" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F289" s="38"/>
+    </row>
+    <row r="290" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A290" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="B290" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C290" s="37" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D290" s="37" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E290" s="38" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A291" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="B291" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C291" s="37" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D291" s="37" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E291" s="38" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A292" s="36" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B292" s="37" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C292" s="37" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D292" s="37" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E292" s="38" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A293" s="36" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B293" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C293" s="37" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D293" s="37" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E293" s="38" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="21" thickBot="1">
+      <c r="A294" s="36" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B294" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C294" s="52" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D294" s="52" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E294" s="38" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="21" thickBot="1">
+      <c r="A295" s="36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B295" s="52" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C295" s="52" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D295" s="52" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E295" s="38" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A296" s="36" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B296" s="37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C296" s="37" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D296" s="37" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E296" s="38" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="19.8" thickBot="1">
+      <c r="A297" s="36" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B297" s="37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C297" s="37" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D297" s="37" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E297" s="38" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="E298" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A54" r:id="rId1" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474554&amp;article.offset=0&amp;articleLimit=10&amp;no=11981005&amp;page=1" xr:uid="{6103CAAF-E564-49A4-B8FE-B2AB40DB9E0D}"/>
+    <hyperlink ref="A157" r:id="rId2" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474555&amp;article.offset=0&amp;articleLimit=10&amp;no=11992013&amp;page=1" xr:uid="{49ABDCF7-937B-464E-B7B4-07CC17825BEB}"/>
+    <hyperlink ref="A53" r:id="rId3" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474556&amp;article.offset=0&amp;articleLimit=10&amp;no=11995003&amp;page=1" xr:uid="{6FE5FCC7-5730-431E-AA6A-1DD95B19D2BF}"/>
+    <hyperlink ref="A63" r:id="rId4" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474557&amp;article.offset=0&amp;articleLimit=10&amp;no=11995011&amp;page=1" xr:uid="{1167B8D9-7680-4C24-B433-7C45D604A764}"/>
+    <hyperlink ref="A158" r:id="rId5" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474559&amp;article.offset=0&amp;articleLimit=10&amp;no=11997003&amp;page=1" xr:uid="{E3999B92-3DB4-4E74-8103-AFE0675E9DF7}"/>
+    <hyperlink ref="A55" r:id="rId6" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474560&amp;article.offset=0&amp;articleLimit=10&amp;no=11998003&amp;page=1" xr:uid="{3B4E7375-571B-4A5C-AF6F-B940D7FD8941}"/>
+    <hyperlink ref="A56" r:id="rId7" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474561&amp;article.offset=0&amp;articleLimit=10&amp;no=12002038&amp;page=1" xr:uid="{74F2ECCA-ECB3-480B-9A3A-C0CE99ADA8D7}"/>
+    <hyperlink ref="A140" r:id="rId8" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474562&amp;article.offset=0&amp;articleLimit=10&amp;no=12004053&amp;page=1" xr:uid="{3445D1E9-57CB-453B-8C2E-77EA4662E92A}"/>
+    <hyperlink ref="A144" r:id="rId9" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474563&amp;article.offset=0&amp;articleLimit=10&amp;no=12005071&amp;page=1" xr:uid="{4E226CD1-ADA9-4212-8546-70BD20684204}"/>
+    <hyperlink ref="A275" r:id="rId10" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474564&amp;article.offset=0&amp;articleLimit=10&amp;no=12005080&amp;page=2" xr:uid="{9797A8C4-D81A-43B0-97D4-A32ECF3C19AD}"/>
+    <hyperlink ref="A278" r:id="rId11" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474565&amp;article.offset=0&amp;articleLimit=10&amp;no=12008001&amp;page=2" xr:uid="{77B56FCF-0F8C-48C2-9D2A-DDD028990678}"/>
+    <hyperlink ref="A141" r:id="rId12" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474566&amp;article.offset=0&amp;articleLimit=10&amp;no=12008002&amp;page=2" xr:uid="{84D867C2-75C6-4AE2-8E72-A5C2ED80CEE2}"/>
+    <hyperlink ref="A273" r:id="rId13" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474567&amp;article.offset=0&amp;articleLimit=10&amp;no=12009001&amp;page=2" xr:uid="{373B7724-929D-4E3F-9F84-F724E1B1E510}"/>
+    <hyperlink ref="A257" r:id="rId14" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474568&amp;article.offset=0&amp;articleLimit=10&amp;no=12011046&amp;page=2" xr:uid="{86DB862E-E8EF-4C63-B2D0-F0021EA6EFAA}"/>
+    <hyperlink ref="A97" r:id="rId15" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474569&amp;article.offset=0&amp;articleLimit=10&amp;no=11990014&amp;page=2" xr:uid="{7337ABF3-9418-4AA7-B382-C650BF4D9B4B}"/>
+    <hyperlink ref="A267" r:id="rId16" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474570&amp;article.offset=0&amp;articleLimit=10&amp;no=12013024&amp;page=2" xr:uid="{B20FC059-9B1D-4873-94B8-912F91F2A345}"/>
+    <hyperlink ref="A271" r:id="rId17" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1474572&amp;article.offset=0&amp;articleLimit=10&amp;no=12016001&amp;page=2" xr:uid="{3633DA61-C77F-4D20-A96C-C47EF15BD8C1}"/>
+    <hyperlink ref="A268" r:id="rId18" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1508175&amp;article.offset=0&amp;articleLimit=10&amp;no=12019061&amp;page=2" xr:uid="{7E59C0B4-72D2-4793-9F70-2A99AFF22740}"/>
+    <hyperlink ref="A265" r:id="rId19" display="https://www.kw.ac.kr/ko/univ/electronic01_2.jsp?mode=view&amp;articleNo=1508176&amp;article.offset=0&amp;articleLimit=10&amp;no=12019062&amp;page=2" xr:uid="{6A24639E-FD58-4E30-B434-562AE3C0596B}"/>
+    <hyperlink ref="D55" r:id="rId20" xr:uid="{517F91FB-4591-44EA-A8EF-C06D92FCC786}"/>
+    <hyperlink ref="A161" r:id="rId21" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409716&amp;article.offset=0&amp;articleLimit=10&amp;no=11985002&amp;page=1" xr:uid="{0459714D-0C54-4BED-BFBF-348FD57B8E3A}"/>
+    <hyperlink ref="A160" r:id="rId22" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409717&amp;article.offset=0&amp;articleLimit=10&amp;no=11993008&amp;page=1" xr:uid="{3E62582B-E1FE-46DA-9030-D2D9F431E8C4}"/>
+    <hyperlink ref="A156" r:id="rId23" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409718&amp;article.offset=0&amp;articleLimit=10&amp;no=11993009&amp;page=1" xr:uid="{D92DBA16-151E-40E3-8E7A-86E6A3BA891E}"/>
+    <hyperlink ref="A159" r:id="rId24" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409719&amp;article.offset=0&amp;articleLimit=10&amp;no=11999100&amp;page=1" xr:uid="{42C77A4B-8B34-4848-8E60-1E75BD9FDC78}"/>
+    <hyperlink ref="A166" r:id="rId25" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409720&amp;article.offset=0&amp;articleLimit=10&amp;no=11999097&amp;page=1" xr:uid="{1D030A67-9AB0-4A65-B4E0-F7A4DE28EF7A}"/>
+    <hyperlink ref="A155" r:id="rId26" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409721&amp;article.offset=0&amp;articleLimit=10&amp;no=12000005&amp;page=1" xr:uid="{7DE1FD06-35FD-4373-BAF2-CA1B070BEFAC}"/>
+    <hyperlink ref="A277" r:id="rId27" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409722&amp;article.offset=0&amp;articleLimit=10&amp;no=12003003&amp;page=1" xr:uid="{C4964029-E312-491E-89EC-A419C540BD74}"/>
+    <hyperlink ref="A151" r:id="rId28" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409723&amp;article.offset=0&amp;articleLimit=10&amp;no=12004003&amp;page=1" xr:uid="{9FD99A63-2280-4191-94B6-731B1A4ED0B9}"/>
+    <hyperlink ref="A269" r:id="rId29" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409724&amp;article.offset=0&amp;articleLimit=10&amp;no=12006003&amp;page=1" xr:uid="{4D0F1CC5-E546-411F-B448-36A80D1F6A9C}"/>
+    <hyperlink ref="A279" r:id="rId30" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409725&amp;article.offset=0&amp;articleLimit=10&amp;no=12008003&amp;page=1" xr:uid="{21BFBA13-DDE7-44CB-970D-C49F06F123E2}"/>
+    <hyperlink ref="A270" r:id="rId31" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409726&amp;article.offset=0&amp;articleLimit=10&amp;no=12012067&amp;page=2" xr:uid="{1CC356CF-00F1-443F-BBDE-6D99D8A6F8F6}"/>
+    <hyperlink ref="A163" r:id="rId32" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1409727&amp;article.offset=0&amp;articleLimit=10&amp;no=12014016&amp;page=2" xr:uid="{03DCEEE1-DE83-4143-B684-4705EFD349E8}"/>
+    <hyperlink ref="A164" r:id="rId33" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1498489&amp;article.offset=0&amp;articleLimit=10&amp;no=12015023&amp;page=2" xr:uid="{9A64409B-B5DD-4F30-811E-F791810FFD31}"/>
+    <hyperlink ref="A165" r:id="rId34" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1498490&amp;article.offset=0&amp;articleLimit=10&amp;no=12016002&amp;page=2" xr:uid="{26B4D433-C777-45B9-AD10-7881477D6FBD}"/>
+    <hyperlink ref="A162" r:id="rId35" display="https://www.kw.ac.kr/ko/univ/electronic02_2.jsp?mode=view&amp;articleNo=1502714&amp;article.offset=0&amp;articleLimit=10&amp;no=12017001&amp;page=2" xr:uid="{BEC0E0C9-4F19-4F2C-8CF7-BEB6CA2BC704}"/>
+    <hyperlink ref="A167" r:id="rId36" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409728&amp;article.offset=0&amp;articleLimit=10&amp;no=11993007&amp;page=1" xr:uid="{ED05524C-ACDB-4AC4-BC37-89B49E6108A3}"/>
+    <hyperlink ref="A42" r:id="rId37" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409729&amp;article.offset=0&amp;articleLimit=10&amp;no=11995002&amp;page=1" xr:uid="{FB2E7325-F84A-4EA3-85D8-357BAFF7B18D}"/>
+    <hyperlink ref="A50" r:id="rId38" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409730&amp;article.offset=0&amp;articleLimit=10&amp;no=11996005&amp;page=1" xr:uid="{3C891799-BD5D-450D-A19C-033C437B1221}"/>
+    <hyperlink ref="A43" r:id="rId39" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409731&amp;article.offset=0&amp;articleLimit=10&amp;no=11997004&amp;page=1" xr:uid="{ABBF56B7-CC1C-4514-8713-0893D261BFB9}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409732&amp;article.offset=0&amp;articleLimit=10&amp;no=11998004&amp;page=1" xr:uid="{F6358121-1904-47C0-B06B-B2DB4C8802FB}"/>
+    <hyperlink ref="A154" r:id="rId41" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409733&amp;article.offset=0&amp;articleLimit=10&amp;no=12000004&amp;page=1" xr:uid="{850923D7-254F-47BD-8E35-144A0AB0093A}"/>
+    <hyperlink ref="A280" r:id="rId42" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409734&amp;article.offset=0&amp;articleLimit=10&amp;no=12001002&amp;page=1" xr:uid="{64781305-9C3A-4101-ACD6-D5419987FEBB}"/>
+    <hyperlink ref="A169" r:id="rId43" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409735&amp;article.offset=0&amp;articleLimit=10&amp;no=12002039&amp;page=1" xr:uid="{F2204E8A-9301-4E04-83CF-8CDDBBF8D8EE}"/>
+    <hyperlink ref="A51" r:id="rId44" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409736&amp;article.offset=0&amp;articleLimit=10&amp;no=12003036&amp;page=1" xr:uid="{74376754-E13D-4B9B-978A-5CDCC50852ED}"/>
+    <hyperlink ref="A139" r:id="rId45" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409737&amp;article.offset=0&amp;articleLimit=10&amp;no=12006004&amp;page=1" xr:uid="{87CFB6DC-949D-4499-AB6A-CF5C9BB4B798}"/>
+    <hyperlink ref="A281" r:id="rId46" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409738&amp;article.offset=0&amp;articleLimit=10&amp;no=12007002&amp;page=2" xr:uid="{7709DE31-4226-40EE-9067-955369C11435}"/>
+    <hyperlink ref="A152" r:id="rId47" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409739&amp;article.offset=0&amp;articleLimit=10&amp;no=12009002&amp;page=2" xr:uid="{94F0A347-8FBA-447F-BB33-FF412D9216A5}"/>
+    <hyperlink ref="A142" r:id="rId48" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1409740&amp;article.offset=0&amp;articleLimit=10&amp;no=12013022&amp;page=2" xr:uid="{D245ED9C-C23C-40AA-B145-FBB26D4B024A}"/>
+    <hyperlink ref="A282" r:id="rId49" display="https://www.kw.ac.kr/ko/univ/electronic03_2.jsp?mode=view&amp;articleNo=1502794&amp;article.offset=0&amp;articleLimit=10&amp;no=12017005&amp;page=2" xr:uid="{B7D82FE4-1FC3-46D3-81A5-BB66221E14BD}"/>
+    <hyperlink ref="A138" r:id="rId50" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409970&amp;article.offset=0&amp;articleLimit=10&amp;no=11987001&amp;page=1" xr:uid="{559DE26B-3D4F-4F1D-A541-D08F6093CC15}"/>
+    <hyperlink ref="A283" r:id="rId51" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409971&amp;article.offset=0&amp;articleLimit=10&amp;no=11989003&amp;page=1" xr:uid="{FB3FB921-C315-4AB7-9A8E-A77627385BF3}"/>
+    <hyperlink ref="A137" r:id="rId52" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409972&amp;article.offset=0&amp;articleLimit=10&amp;no=11990010&amp;page=1" xr:uid="{5F7EE92A-050D-4497-B4BD-A4E6E77A1C6C}"/>
+    <hyperlink ref="A136" r:id="rId53" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409973&amp;article.offset=0&amp;articleLimit=10&amp;no=11992014&amp;page=1" xr:uid="{D522222F-8BF0-4167-A222-DADD7D689A2B}"/>
+    <hyperlink ref="A135" r:id="rId54" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409974&amp;article.offset=0&amp;articleLimit=10&amp;no=11996002&amp;page=1" xr:uid="{CC4D6E5F-5F48-4B9D-9A24-491DBA54537D}"/>
+    <hyperlink ref="A134" r:id="rId55" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409975&amp;article.offset=0&amp;articleLimit=10&amp;no=12000002&amp;page=1" xr:uid="{7DE85A92-0FED-4793-8C19-F8E80D390B20}"/>
+    <hyperlink ref="A145" r:id="rId56" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409976&amp;article.offset=0&amp;articleLimit=10&amp;no=12005081&amp;page=1" xr:uid="{B7BFF7E4-D162-4F40-A279-3A2D996CDD5D}"/>
+    <hyperlink ref="A147" r:id="rId57" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409977&amp;article.offset=0&amp;articleLimit=10&amp;no=12006007&amp;page=1" xr:uid="{91F96FD9-42B7-41DC-ADE1-738B0FA394F3}"/>
+    <hyperlink ref="A146" r:id="rId58" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409978&amp;article.offset=0&amp;articleLimit=10&amp;no=12008079&amp;page=1" xr:uid="{91BC6759-C43A-48E6-9C8F-4279BC3789DE}"/>
+    <hyperlink ref="A130" r:id="rId59" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409979&amp;article.offset=0&amp;articleLimit=10&amp;no=12008080&amp;page=1" xr:uid="{4DE8CC12-E3ED-4C53-8678-18584DF463C0}"/>
+    <hyperlink ref="A284" r:id="rId60" display="https://www.kw.ac.kr/ko/univ/electronic06_2.jsp?mode=view&amp;articleNo=1409980&amp;article.offset=0&amp;articleLimit=10&amp;no=12014019&amp;page=2" xr:uid="{C77A90F3-AD60-4918-B0C5-6D812429E945}"/>
+    <hyperlink ref="A172" r:id="rId61" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409775&amp;article.offset=0&amp;articleLimit=10&amp;no=11989010&amp;page=1" xr:uid="{50A0FBBF-C01B-41CE-AE83-D663581100E3}"/>
+    <hyperlink ref="A168" r:id="rId62" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409776&amp;article.offset=0&amp;articleLimit=10&amp;no=11992012&amp;page=1" xr:uid="{3C4B45BA-6476-4824-9657-F544EC5EE5C8}"/>
+    <hyperlink ref="A170" r:id="rId63" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409777&amp;article.offset=0&amp;articleLimit=10&amp;no=11998005&amp;page=1" xr:uid="{FD7EDA6E-DAB7-4FA6-A2B8-90794B5A4CD7}"/>
+    <hyperlink ref="A174" r:id="rId64" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409778&amp;article.offset=0&amp;articleLimit=10&amp;no=12005004&amp;page=1" xr:uid="{A6292047-2D73-48B8-AB49-4C3E696CE910}"/>
+    <hyperlink ref="A44" r:id="rId65" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409779&amp;article.offset=0&amp;articleLimit=10&amp;no=12006008&amp;page=1" xr:uid="{30ABB6C8-845C-4D7A-AC7F-C54D21F8E0DE}"/>
+    <hyperlink ref="A173" r:id="rId66" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409780&amp;article.offset=0&amp;articleLimit=10&amp;no=12013020&amp;page=1" xr:uid="{40D7EF3C-42F6-4CBD-A016-45FB8F4FF187}"/>
+    <hyperlink ref="A171" r:id="rId67" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409781&amp;article.offset=0&amp;articleLimit=10&amp;no=12014020&amp;page=1" xr:uid="{9A40D93D-8C48-4C96-9873-6A5BDD16F702}"/>
+    <hyperlink ref="A149" r:id="rId68" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1504708&amp;article.offset=0&amp;articleLimit=10&amp;no=12008051&amp;page=1" xr:uid="{27C7FD87-2AF4-43B5-990E-DE7D043BFF44}"/>
+    <hyperlink ref="A45" r:id="rId69" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1409782&amp;article.offset=0&amp;articleLimit=10&amp;no=12016005&amp;page=1" xr:uid="{B587A5DB-380B-4CA3-B698-F670FC2C3F16}"/>
+    <hyperlink ref="A143" r:id="rId70" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1501809&amp;article.offset=0&amp;articleLimit=10&amp;no=12017008&amp;page=1" xr:uid="{3A9C037E-B1A8-4BB4-BBC6-F7F629BCF9F4}"/>
+    <hyperlink ref="A153" r:id="rId71" display="https://www.kw.ac.kr/ko/univ/electronic07_2.jsp?mode=view&amp;articleNo=1508153&amp;article.offset=0&amp;articleLimit=10&amp;no=12019060&amp;page=2" xr:uid="{1B96479C-3CC5-4625-8561-CB3A2F82876C}"/>
+    <hyperlink ref="A8" r:id="rId72" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474578&amp;article.offset=0&amp;articleLimit=10&amp;no=11990009&amp;page=1" xr:uid="{7892088B-3FA5-4A47-8A9F-D82B3551CBFE}"/>
+    <hyperlink ref="A6" r:id="rId73" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474579&amp;article.offset=0&amp;articleLimit=10&amp;no=11999103&amp;page=1" xr:uid="{B0133A13-05A8-46CD-8097-56BC7B78C2E9}"/>
+    <hyperlink ref="A11" r:id="rId74" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474580&amp;article.offset=0&amp;articleLimit=10&amp;no=12003005&amp;page=1" xr:uid="{6C7A2B7C-C5E3-414D-83D0-727F52DEF4B6}"/>
+    <hyperlink ref="A12" r:id="rId75" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474581&amp;article.offset=0&amp;articleLimit=10&amp;no=12005074&amp;page=1" xr:uid="{5CBB4FC2-5F9D-42C5-B092-DC7C015BD652}"/>
+    <hyperlink ref="A10" r:id="rId76" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474582&amp;article.offset=0&amp;articleLimit=10&amp;no=12008007&amp;page=1" xr:uid="{02F7C61E-1ECC-4A2D-AD88-B8E421B30E00}"/>
+    <hyperlink ref="A13" r:id="rId77" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474583&amp;article.offset=0&amp;articleLimit=10&amp;no=12008082&amp;page=1" xr:uid="{9B08C2AA-406A-4FD5-99F6-6B23C74933D1}"/>
+    <hyperlink ref="A9" r:id="rId78" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474584&amp;article.offset=0&amp;articleLimit=10&amp;no=12008081&amp;page=1" xr:uid="{EC3E2B4A-CFE7-4949-BB85-423BA0958D42}"/>
+    <hyperlink ref="A14" r:id="rId79" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474585&amp;article.offset=0&amp;articleLimit=10&amp;no=12010032&amp;page=1" xr:uid="{47634A0B-073D-4454-AFB2-8E282B6A7A6D}"/>
+    <hyperlink ref="A7" r:id="rId80" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1474586&amp;article.offset=0&amp;articleLimit=10&amp;no=12013071&amp;page=1" xr:uid="{07A1E5F3-C837-4DF1-B775-A1D0085FEF80}"/>
+    <hyperlink ref="A5" r:id="rId81" display="https://www.kw.ac.kr/ko/univ/electronic08_2.jsp?mode=view&amp;articleNo=1508236&amp;article.offset=0&amp;articleLimit=10&amp;no=12019063&amp;page=1" xr:uid="{10A74D14-DC37-4855-84A3-B7D31ADC90CD}"/>
+    <hyperlink ref="A76" r:id="rId82" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409753&amp;article.offset=0&amp;articleLimit=10&amp;no=11983002&amp;page=1" xr:uid="{3E7BBC65-2CE7-402B-96BB-EA56B1BE3C72}"/>
+    <hyperlink ref="A65" r:id="rId83" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409754&amp;article.offset=0&amp;articleLimit=10&amp;no=11984004&amp;page=1" xr:uid="{9AED9E61-1138-4764-84B9-CE3CB736C93A}"/>
+    <hyperlink ref="A81" r:id="rId84" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409755&amp;article.offset=0&amp;articleLimit=10&amp;no=11992004&amp;page=1" xr:uid="{C839B161-E60C-409E-BA24-62A23D327DD9}"/>
+    <hyperlink ref="A150" r:id="rId85" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409756&amp;article.offset=0&amp;articleLimit=10&amp;no=12000006&amp;page=1" xr:uid="{192769E9-E079-418E-BDF9-C439BF5E5262}"/>
+    <hyperlink ref="A148" r:id="rId86" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409757&amp;article.offset=0&amp;articleLimit=10&amp;no=12002040&amp;page=1" xr:uid="{836B8ECB-EE31-4DDB-9EEC-D02431231618}"/>
+    <hyperlink ref="A77" r:id="rId87" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409758&amp;article.offset=0&amp;articleLimit=10&amp;no=12005003&amp;page=1" xr:uid="{EC10B9A0-9126-4779-9CB2-F56D0E528872}"/>
+    <hyperlink ref="A68" r:id="rId88" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409759&amp;article.offset=0&amp;articleLimit=10&amp;no=12006005&amp;page=1" xr:uid="{AD9C1DEA-778B-4F09-8DF3-DC83E18392CC}"/>
+    <hyperlink ref="A67" r:id="rId89" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409760&amp;article.offset=0&amp;articleLimit=10&amp;no=12007003&amp;page=1" xr:uid="{EEB72BDE-DFA8-4097-8463-4E3A6F2EB4D6}"/>
+    <hyperlink ref="A66" r:id="rId90" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409761&amp;article.offset=0&amp;articleLimit=10&amp;no=12008006&amp;page=1" xr:uid="{3EFABF73-0AFB-4F74-8FFB-CA0E9531AD33}"/>
+    <hyperlink ref="A80" r:id="rId91" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1409762&amp;article.offset=0&amp;articleLimit=10&amp;no=12013070&amp;page=2" xr:uid="{ACDF9B46-630F-41BC-83C4-40431AD0D4EB}"/>
+    <hyperlink ref="A79" r:id="rId92" display="https://www.kw.ac.kr/ko/univ/electronic05_2.jsp?mode=view&amp;articleNo=1502845&amp;article.offset=0&amp;articleLimit=10&amp;no=12017007&amp;page=2" xr:uid="{F97B621C-0189-4B4A-8224-2B7C9C088372}"/>
+    <hyperlink ref="A69" r:id="rId93" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409741&amp;article.offset=0&amp;articleLimit=10&amp;no=11989011&amp;page=1" xr:uid="{3699F28B-0431-4E99-A131-640D7398FFF3}"/>
+    <hyperlink ref="A75" r:id="rId94" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409742&amp;article.offset=0&amp;articleLimit=10&amp;no=11996003&amp;page=1" xr:uid="{5AAF05F7-679A-4631-85BC-8A0249669507}"/>
+    <hyperlink ref="A74" r:id="rId95" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409744&amp;article.offset=0&amp;articleLimit=10&amp;no=12003037&amp;page=1" xr:uid="{2E8B669B-AF6D-4814-B92E-6D04B4B90848}"/>
+    <hyperlink ref="A88" r:id="rId96" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409743&amp;article.offset=0&amp;articleLimit=10&amp;no=12005001&amp;page=1" xr:uid="{029BB9E6-A7CC-4A8C-848D-26EEC155D17A}"/>
+    <hyperlink ref="A82" r:id="rId97" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409745&amp;article.offset=0&amp;articleLimit=10&amp;no=12005002&amp;page=1" xr:uid="{7DD7AA0F-718E-4D47-8A3D-B286B78699E0}"/>
+    <hyperlink ref="A84" r:id="rId98" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409746&amp;article.offset=0&amp;articleLimit=10&amp;no=12008005&amp;page=1" xr:uid="{FBBFF65B-733C-4FC7-8899-AB5A0CFFDEB7}"/>
+    <hyperlink ref="A87" r:id="rId99" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409747&amp;article.offset=0&amp;articleLimit=10&amp;no=12008078&amp;page=1" xr:uid="{34DF83A8-28CD-4C2C-9DAD-8D1492CA5114}"/>
+    <hyperlink ref="A85" r:id="rId100" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409748&amp;article.offset=0&amp;articleLimit=10&amp;no=12010048&amp;page=1" xr:uid="{376798A1-EAE2-4C1E-8015-6D6FD8AA46CB}"/>
+    <hyperlink ref="A86" r:id="rId101" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409749&amp;article.offset=0&amp;articleLimit=10&amp;no=12013023&amp;page=1" xr:uid="{88BB043B-BC42-4CFF-A4C6-A54ABC07E4BF}"/>
+    <hyperlink ref="A83" r:id="rId102" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1409750&amp;article.offset=0&amp;articleLimit=10&amp;no=12014017&amp;page=1" xr:uid="{440127A4-5162-4BF5-9B63-8C2A4CE1CE6A}"/>
+    <hyperlink ref="A73" r:id="rId103" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1504165&amp;article.offset=0&amp;articleLimit=10&amp;no=12017006&amp;page=2" xr:uid="{F556F3E3-8711-4946-AFC9-7D31CC9EBEA3}"/>
+    <hyperlink ref="A72" r:id="rId104" display="https://www.kw.ac.kr/ko/univ/electronic04_2.jsp?mode=view&amp;articleNo=1509454&amp;article.offset=0&amp;articleLimit=10&amp;no=12020003&amp;page=2" xr:uid="{5FF7DF84-4E45-440D-B0A8-190DB643619A}"/>
+    <hyperlink ref="A70" r:id="rId105" display="https://www.kw.ac.kr/ko/univ/convergence03_2.jsp?mode=view&amp;articleNo=1503048&amp;article.offset=0&amp;articleLimit=10&amp;no=11994004&amp;page=1" xr:uid="{05A0D45B-9A9D-4DC3-9F5F-2F7D65E36C04}"/>
+    <hyperlink ref="A71" r:id="rId106" display="https://www.kw.ac.kr/ko/univ/convergence03_2.jsp?mode=view&amp;articleNo=1508452&amp;article.offset=0&amp;articleLimit=10&amp;no=12019064&amp;page=1" xr:uid="{62D4357A-2C37-47E9-86EF-FE9A05D7FBBE}"/>
+    <hyperlink ref="A78" r:id="rId107" display="https://www.kw.ac.kr/ko/univ/convergence03_2.jsp?mode=view&amp;articleNo=1505105&amp;article.offset=0&amp;articleLimit=10&amp;no=12018030&amp;page=1" xr:uid="{EB63424A-47EA-495C-8FDA-A31EE6A87319}"/>
+    <hyperlink ref="A131" r:id="rId108" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409801&amp;article.offset=0&amp;articleLimit=10&amp;no=11991008&amp;page=1" xr:uid="{F28BB60B-4CC4-449F-B4CE-FD612D15096F}"/>
+    <hyperlink ref="A133" r:id="rId109" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409802&amp;article.offset=0&amp;articleLimit=10&amp;no=11991009&amp;page=1" xr:uid="{589B5FCA-5BF6-4943-913C-634DBDDBB2E4}"/>
+    <hyperlink ref="A175" r:id="rId110" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409803&amp;article.offset=0&amp;articleLimit=10&amp;no=11991010&amp;page=1" xr:uid="{08A2638B-2CF5-48BD-8457-71314B05AECC}"/>
+    <hyperlink ref="A285" r:id="rId111" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409804&amp;article.offset=0&amp;articleLimit=10&amp;no=12001003&amp;page=1" xr:uid="{CAD96BDF-1DE7-442B-8F58-14366B2FC73F}"/>
+    <hyperlink ref="A263" r:id="rId112" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409805&amp;article.offset=0&amp;articleLimit=10&amp;no=12005075&amp;page=1" xr:uid="{C0FB2444-1920-43D5-9604-E6551173B3A1}"/>
+    <hyperlink ref="A272" r:id="rId113" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1409806&amp;article.offset=0&amp;articleLimit=10&amp;no=12008008&amp;page=1" xr:uid="{6E4D2A4C-825D-42CC-8525-A3D724F4EF6D}"/>
+    <hyperlink ref="A276" r:id="rId114" display="https://www.kw.ac.kr/ko/univ/engineering01_2.jsp?mode=view&amp;articleNo=1503749&amp;article.offset=0&amp;articleLimit=10&amp;no=12014036&amp;page=1" xr:uid="{7AFB7D97-8580-4AA9-B35A-B5CFEB7ED375}"/>
+    <hyperlink ref="A57" r:id="rId115" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409816&amp;article.offset=0&amp;articleLimit=10&amp;no=11989006&amp;page=1" xr:uid="{EFC02F84-D4C6-47FF-8966-693DFFFF6604}"/>
+    <hyperlink ref="A49" r:id="rId116" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409817&amp;article.offset=0&amp;articleLimit=10&amp;no=12012032&amp;page=1" xr:uid="{EFB152E2-F465-40BF-A5D0-531FD81E76DF}"/>
+    <hyperlink ref="A62" r:id="rId117" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409818&amp;article.offset=0&amp;articleLimit=10&amp;no=11990008&amp;page=1" xr:uid="{D9E4FB1A-FB58-433D-BFB8-0CC587153459}"/>
+    <hyperlink ref="A58" r:id="rId118" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409819&amp;article.offset=0&amp;articleLimit=10&amp;no=11993005&amp;page=1" xr:uid="{63AD62AF-DCAC-440C-8DD4-021BAEA7627F}"/>
+    <hyperlink ref="A47" r:id="rId119" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409820&amp;article.offset=0&amp;articleLimit=10&amp;no=12007004&amp;page=1" xr:uid="{1EEE3D3E-92D2-4191-A1A8-3F4D0966FD29}"/>
+    <hyperlink ref="A48" r:id="rId120" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409821&amp;article.offset=0&amp;articleLimit=10&amp;no=12008009&amp;page=1" xr:uid="{8144D5FF-9954-422F-AAC7-7CB8FA18E5E4}"/>
+    <hyperlink ref="A59" r:id="rId121" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1409822&amp;article.offset=0&amp;articleLimit=10&amp;no=12013021&amp;page=1" xr:uid="{4E735040-D224-4E34-B978-61D033EDD99E}"/>
+    <hyperlink ref="A60" r:id="rId122" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1502455&amp;article.offset=0&amp;articleLimit=10&amp;no=12017009&amp;page=1" xr:uid="{C2AD6ED5-170E-47A1-B2AD-CAA1E1791842}"/>
+    <hyperlink ref="A286" r:id="rId123" display="https://www.kw.ac.kr/ko/univ/engineering02_2.jsp?mode=view&amp;articleNo=1502456&amp;article.offset=0&amp;articleLimit=10&amp;no=12017004&amp;page=1" xr:uid="{A9E90695-23E6-45F2-BB2D-A7532D2B213C}"/>
+    <hyperlink ref="A40" r:id="rId124" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409842&amp;article.offset=0&amp;articleLimit=10&amp;no=11990011&amp;page=1" xr:uid="{D010E9D6-BCDE-4DCD-9E47-807AD1988AB3}"/>
+    <hyperlink ref="A61" r:id="rId125" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409843&amp;article.offset=0&amp;articleLimit=10&amp;no=11992016&amp;page=1" xr:uid="{2E2C71C2-8B45-4632-802B-32AF3C5BA28E}"/>
+    <hyperlink ref="A39" r:id="rId126" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409844&amp;article.offset=0&amp;articleLimit=10&amp;no=11995010&amp;page=1" xr:uid="{5B8667A5-DCE1-49EB-A581-88EC46FB65D5}"/>
+    <hyperlink ref="A36" r:id="rId127" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409845&amp;article.offset=0&amp;articleLimit=10&amp;no=11999104&amp;page=1" xr:uid="{026B3280-77D1-4977-90CB-B1432FC1E746}"/>
+    <hyperlink ref="A38" r:id="rId128" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409846&amp;article.offset=0&amp;articleLimit=10&amp;no=11999105&amp;page=1" xr:uid="{7BF21D7E-85EA-4451-BBA2-928A04A409ED}"/>
+    <hyperlink ref="A37" r:id="rId129" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1506317&amp;article.offset=0&amp;articleLimit=10&amp;no=12008052&amp;page=1" xr:uid="{B8656FF0-A7CD-4C2B-B6E4-4848643F0F12}"/>
+    <hyperlink ref="A46" r:id="rId130" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1409847&amp;article.offset=0&amp;articleLimit=10&amp;no=12016008&amp;page=1" xr:uid="{0899AD3B-DA8C-4AF2-999E-6AF700D9EE49}"/>
+    <hyperlink ref="A52" r:id="rId131" display="https://www.kw.ac.kr/ko/univ/engineering03_2.jsp?mode=view&amp;articleNo=1503748&amp;article.offset=0&amp;articleLimit=10&amp;no=12013028&amp;page=1" xr:uid="{6588A9BD-0DE1-462F-B091-4D0A1A79DEDD}"/>
+    <hyperlink ref="A176" r:id="rId132" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409848&amp;article.offset=0&amp;articleLimit=10&amp;no=11993006&amp;page=1" xr:uid="{3514D025-529C-4517-8DFB-1DE7DEE47D52}"/>
+    <hyperlink ref="A132" r:id="rId133" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409849&amp;article.offset=0&amp;articleLimit=10&amp;no=11996004&amp;page=1" xr:uid="{CC9FC56D-FBD0-4FB3-9874-46829FBA38E7}"/>
+    <hyperlink ref="A259" r:id="rId134" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409850&amp;article.offset=0&amp;articleLimit=10&amp;no=12002002&amp;page=1" xr:uid="{F1C4AFF8-6697-4EB9-9FBF-C7B0AA525A17}"/>
+    <hyperlink ref="A261" r:id="rId135" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409851&amp;article.offset=0&amp;articleLimit=10&amp;no=12004005&amp;page=1" xr:uid="{6C634EEF-3931-427F-8F86-5F65B9E1B972}"/>
+    <hyperlink ref="A262" r:id="rId136" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409852&amp;article.offset=0&amp;articleLimit=10&amp;no=12005005&amp;page=1" xr:uid="{50736240-1E0A-4599-BC09-B242A00DDFB3}"/>
+    <hyperlink ref="A264" r:id="rId137" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1409853&amp;article.offset=0&amp;articleLimit=10&amp;no=12013027&amp;page=1" xr:uid="{78E24599-6C51-4B73-B4EB-5D427D205EE6}"/>
+    <hyperlink ref="A260" r:id="rId138" display="https://www.kw.ac.kr/ko/univ/engineering04_2.jsp?mode=view&amp;articleNo=1503750&amp;article.offset=0&amp;articleLimit=10&amp;no=12016007&amp;page=1" xr:uid="{0441F753-3F5B-4FC0-BD5C-D7E76D751DAE}"/>
+    <hyperlink ref="A111" r:id="rId139" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409854&amp;article.offset=0&amp;articleLimit=10&amp;no=11991011&amp;page=1" xr:uid="{CC02F0BB-DBC6-4D4B-8C6C-18AE76297331}"/>
+    <hyperlink ref="A128" r:id="rId140" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409855&amp;article.offset=0&amp;articleLimit=10&amp;no=11995001&amp;page=1" xr:uid="{2E3A9B59-4795-43BB-BFF4-6CCD374439F1}"/>
+    <hyperlink ref="A116" r:id="rId141" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409856&amp;article.offset=0&amp;articleLimit=10&amp;no=11995006&amp;page=1" xr:uid="{FA1EEAB7-CF3C-4CB8-8DED-4B2EC07EF29C}"/>
+    <hyperlink ref="A117" r:id="rId142" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409857&amp;article.offset=0&amp;articleLimit=10&amp;no=11999106&amp;page=1" xr:uid="{4B251465-5C98-4D8B-B948-14A74C050EBB}"/>
+    <hyperlink ref="A129" r:id="rId143" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409858&amp;article.offset=0&amp;articleLimit=10&amp;no=12008045&amp;page=1" xr:uid="{CDBF3A3A-F0AE-4E7D-AB7B-C834D2E2735A}"/>
+    <hyperlink ref="A112" r:id="rId144" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409859&amp;article.offset=0&amp;articleLimit=10&amp;no=12008046&amp;page=1" xr:uid="{56290356-122E-442D-8BB0-726062DB35EE}"/>
+    <hyperlink ref="A110" r:id="rId145" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409860&amp;article.offset=0&amp;articleLimit=10&amp;no=12007005&amp;page=1" xr:uid="{29979C2D-2697-40E4-BC8E-8BBE83593289}"/>
+    <hyperlink ref="A113" r:id="rId146" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1409861&amp;article.offset=0&amp;articleLimit=10&amp;no=12016009&amp;page=1" xr:uid="{7B520262-2C7D-4759-A785-FB0C7B6E6220}"/>
+    <hyperlink ref="A274" r:id="rId147" display="https://www.kw.ac.kr/ko/univ/science01_2.jsp?mode=view&amp;articleNo=1501411&amp;article.offset=0&amp;articleLimit=10&amp;no=12017002&amp;page=1" xr:uid="{2DA0367A-9BB3-4003-9833-2DE019BBB425}"/>
+    <hyperlink ref="A104" r:id="rId148" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409862&amp;article.offset=0&amp;articleLimit=10&amp;no=11988005&amp;page=1" xr:uid="{5735ED58-28D4-4020-BC27-F9E0ABBFAE06}"/>
+    <hyperlink ref="A287" r:id="rId149" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409863&amp;article.offset=0&amp;articleLimit=10&amp;no=11991007&amp;page=1" xr:uid="{0B476EF8-C65B-421B-AC0F-8565AAB70D33}"/>
+    <hyperlink ref="A108" r:id="rId150" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409864&amp;article.offset=0&amp;articleLimit=10&amp;no=11992005&amp;page=1" xr:uid="{57797DD3-9D5A-4288-B259-B86A2A13B422}"/>
+    <hyperlink ref="A288" r:id="rId151" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409865&amp;article.offset=0&amp;articleLimit=10&amp;no=11994001&amp;page=1" xr:uid="{35FE04F0-02EA-4E48-B041-28F99769B9CE}"/>
+    <hyperlink ref="A107" r:id="rId152" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409866&amp;article.offset=0&amp;articleLimit=10&amp;no=12005006&amp;page=1" xr:uid="{524D22E6-C6C5-4D2B-BED0-9FC4BE14AFB6}"/>
+    <hyperlink ref="A105" r:id="rId153" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409867&amp;article.offset=0&amp;articleLimit=10&amp;no=12007006&amp;page=1" xr:uid="{74D5F1F8-0A1A-4BAC-9190-4B6FDAC68C01}"/>
+    <hyperlink ref="A106" r:id="rId154" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409868&amp;article.offset=0&amp;articleLimit=10&amp;no=12003038&amp;page=1" xr:uid="{1247799E-F5B1-403E-B9BC-1DC3C61EAD85}"/>
+    <hyperlink ref="A109" r:id="rId155" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409869&amp;article.offset=0&amp;articleLimit=10&amp;no=12008010&amp;page=1" xr:uid="{7CE6230D-D5AF-49E8-B597-C9DCDE79095B}"/>
+    <hyperlink ref="A266" r:id="rId156" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409870&amp;article.offset=0&amp;articleLimit=10&amp;no=12013054&amp;page=1" xr:uid="{51AE967A-8515-4D51-849E-BB5EAF20E7C9}"/>
+    <hyperlink ref="A289" r:id="rId157" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409871&amp;article.offset=0&amp;articleLimit=10&amp;no=12013055&amp;page=1" xr:uid="{F0F53294-B96F-43E8-9251-F8B60A19CB43}"/>
+    <hyperlink ref="A34" r:id="rId158" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409872&amp;article.offset=0&amp;articleLimit=10&amp;no=12013057&amp;page=2" xr:uid="{E8297821-4441-48E4-ACF6-E100DE3CED6F}"/>
+    <hyperlink ref="A120" r:id="rId159" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409873&amp;article.offset=0&amp;articleLimit=10&amp;no=12013058&amp;page=2" xr:uid="{05F0FC8A-9B0E-49AC-AF3E-F7434F09B400}"/>
+    <hyperlink ref="A33" r:id="rId160" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409878&amp;article.offset=0&amp;articleLimit=10&amp;no=12011044&amp;page=2" xr:uid="{FC63D3CC-0773-4E56-A6DA-EEBC4FE6D66D}"/>
+    <hyperlink ref="A127" r:id="rId161" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409875&amp;article.offset=0&amp;articleLimit=10&amp;no=12013056&amp;page=2" xr:uid="{69081683-E0AB-4169-B077-0E7AB2F2B79D}"/>
+    <hyperlink ref="A96" r:id="rId162" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409876&amp;article.offset=0&amp;articleLimit=10&amp;no=12013059&amp;page=2" xr:uid="{D7AAA07D-8806-4028-9CD6-EF86D9126F3E}"/>
+    <hyperlink ref="A290" r:id="rId163" display="https://www.kw.ac.kr/ko/univ/science02_2.jsp?mode=view&amp;articleNo=1409874&amp;article.offset=0&amp;articleLimit=10&amp;no=12013065&amp;page=2" xr:uid="{48AB16AD-2231-4C9F-9E8F-726AFF577D97}"/>
+    <hyperlink ref="A98" r:id="rId164" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499556&amp;article.offset=0&amp;articleLimit=10&amp;no=11994002&amp;page=1" xr:uid="{01E55DDD-C5CA-4C4B-A972-1F3319B46E58}"/>
+    <hyperlink ref="A103" r:id="rId165" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499557&amp;article.offset=0&amp;articleLimit=10&amp;no=12000007&amp;page=1" xr:uid="{D2973771-9806-496D-BD47-AE324C0F6BC6}"/>
+    <hyperlink ref="A102" r:id="rId166" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499558&amp;article.offset=0&amp;articleLimit=10&amp;no=12005007&amp;page=1" xr:uid="{8F5EA4D2-697E-4DD9-B306-F44682AF4FB3}"/>
+    <hyperlink ref="A101" r:id="rId167" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499559&amp;article.offset=0&amp;articleLimit=10&amp;no=12007007&amp;page=1" xr:uid="{3C28B174-CB00-4922-A033-0A1E85A79EC3}"/>
+    <hyperlink ref="A100" r:id="rId168" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499560&amp;article.offset=0&amp;articleLimit=10&amp;no=12008011&amp;page=1" xr:uid="{D7E14B1B-DEC8-423C-A74A-801AA8E1BD56}"/>
+    <hyperlink ref="A99" r:id="rId169" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499561&amp;article.offset=0&amp;articleLimit=10&amp;no=12016017&amp;page=1" xr:uid="{9CEF4FB0-4571-41FE-BA23-C2E595E82BD8}"/>
+    <hyperlink ref="A119" r:id="rId170" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499562&amp;article.offset=0&amp;articleLimit=10&amp;no=12016010&amp;page=1" xr:uid="{18D52BDA-531C-469F-B015-AAE1B7F63C29}"/>
+    <hyperlink ref="A121" r:id="rId171" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1499563&amp;article.offset=0&amp;articleLimit=10&amp;no=12016011&amp;page=1" xr:uid="{BCC54276-AA80-4E0E-AB7D-82A60FA5352E}"/>
+    <hyperlink ref="A35" r:id="rId172" display="https://www.kw.ac.kr/ko/univ/science03_2.jsp?mode=view&amp;articleNo=1508735&amp;article.offset=0&amp;articleLimit=10&amp;no=12019065&amp;page=1" xr:uid="{CFF12A26-8B67-4D36-8C39-53E1449F1F32}"/>
+    <hyperlink ref="A123" r:id="rId173" display="https://www.kw.ac.kr/ko/univ/science04_2.jsp?mode=view&amp;articleNo=1409888&amp;article.offset=0&amp;articleLimit=10&amp;no=12001004&amp;page=1" xr:uid="{553F2E6E-C969-4D67-9418-1D56F3914A55}"/>
+    <hyperlink ref="A122" r:id="rId174" display="https://www.kw.ac.kr/ko/univ/science04_2.jsp?mode=view&amp;articleNo=1409889&amp;article.offset=0&amp;articleLimit=10&amp;no=12003006&amp;page=1" xr:uid="{79720076-5D12-44E9-A2E6-BF2F8E8E2D57}"/>
+    <hyperlink ref="A124" r:id="rId175" display="https://www.kw.ac.kr/ko/univ/science04_2.jsp?mode=view&amp;articleNo=1409890&amp;article.offset=0&amp;articleLimit=10&amp;no=12007008&amp;page=1" xr:uid="{C47951FC-541B-424C-8442-5D10CC276909}"/>
+    <hyperlink ref="A125" r:id="rId176" display="https://www.kw.ac.kr/ko/univ/science04_2.jsp?mode=view&amp;articleNo=1409891&amp;article.offset=0&amp;articleLimit=10&amp;no=12016012&amp;page=1" xr:uid="{2503B84A-DAD3-4405-B858-5A2D936EC98F}"/>
+    <hyperlink ref="A64" r:id="rId177" display="https://www.kw.ac.kr/ko/univ/science05_2.jsp?mode=view&amp;articleNo=1409893&amp;article.offset=0&amp;articleLimit=10&amp;no=12013062&amp;page=1" xr:uid="{7028F248-1576-4F65-A93C-A1F62A6F2070}"/>
+    <hyperlink ref="A291" r:id="rId178" display="https://www.kw.ac.kr/ko/univ/science05_2.jsp?mode=view&amp;articleNo=1502548&amp;article.offset=0&amp;articleLimit=10&amp;no=12013060&amp;page=1" xr:uid="{17B6692F-C78A-4FCB-845C-8B6028BCD693}"/>
+    <hyperlink ref="A225" r:id="rId179" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1409896&amp;article.offset=0&amp;articleLimit=10&amp;no=11992011&amp;page=1" xr:uid="{E7BE6780-CC2E-46CB-BA38-8E22C2196C4C}"/>
+    <hyperlink ref="A292" r:id="rId180" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1409897&amp;article.offset=0&amp;articleLimit=10&amp;no=11992010&amp;page=1" xr:uid="{F28321A5-C450-48F7-99AF-5A86EC88DB02}"/>
+    <hyperlink ref="A224" r:id="rId181" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1409899&amp;article.offset=0&amp;articleLimit=10&amp;no=12010053&amp;page=1" xr:uid="{2B5C57BD-FD15-4D04-ACC9-C8CC97F89AB4}"/>
+    <hyperlink ref="A183" r:id="rId182" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1409900&amp;article.offset=0&amp;articleLimit=10&amp;no=12008043&amp;page=1" xr:uid="{7A4FDB3D-70F8-4933-82F7-2A59E8B71177}"/>
+    <hyperlink ref="A180" r:id="rId183" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1509431&amp;article.offset=0&amp;articleLimit=10&amp;no=12008041&amp;page=1" xr:uid="{3C0D4BFD-50B3-49D7-BB37-25510FD0905F}"/>
+    <hyperlink ref="A226" r:id="rId184" display="https://www.kw.ac.kr/ko/univ/social01_2.jsp?mode=view&amp;articleNo=1509432&amp;article.offset=0&amp;articleLimit=10&amp;no=12020004&amp;page=1" xr:uid="{F9FEA517-747B-4F0F-8ADB-10122859ED69}"/>
+    <hyperlink ref="A221" r:id="rId185" display="https://www.kw.ac.kr/ko/univ/social02_2.jsp?mode=view&amp;articleNo=1409902&amp;article.offset=0&amp;articleLimit=10&amp;no=11988003&amp;page=1" xr:uid="{0BDEFDE0-F4D9-4151-8CF5-8866323F6DF2}"/>
+    <hyperlink ref="A222" r:id="rId186" display="https://www.kw.ac.kr/ko/univ/social02_2.jsp?mode=view&amp;articleNo=1409905&amp;article.offset=0&amp;articleLimit=10&amp;no=12010050&amp;page=1" xr:uid="{0C1A8795-04D3-4FC9-B5E4-A52B532356C8}"/>
+    <hyperlink ref="A219" r:id="rId187" display="https://www.kw.ac.kr/ko/univ/social02_2.jsp?mode=view&amp;articleNo=1409906&amp;article.offset=0&amp;articleLimit=10&amp;no=12008014&amp;page=1" xr:uid="{8AF1CE47-5DE1-4E9F-9EAB-D2C1F503E0C4}"/>
+    <hyperlink ref="A220" r:id="rId188" display="https://www.kw.ac.kr/ko/univ/social02_2.jsp?mode=view&amp;articleNo=1409907&amp;article.offset=0&amp;articleLimit=10&amp;no=12016013&amp;page=1" xr:uid="{42696F6A-C879-4AC4-810E-574ED2621761}"/>
+    <hyperlink ref="A293" r:id="rId189" display="https://www.kw.ac.kr/ko/univ/social02_2.jsp?mode=view&amp;articleNo=1503895&amp;article.offset=0&amp;articleLimit=10&amp;no=12018003&amp;page=1" xr:uid="{6146BAF6-8B65-406F-9C75-6ACE5070CCDF}"/>
+    <hyperlink ref="A235" r:id="rId190" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409911&amp;article.offset=0&amp;articleLimit=10&amp;no=11996001&amp;page=1" xr:uid="{73B9B40C-D9AD-4358-8D62-5905027831B1}"/>
+    <hyperlink ref="A232" r:id="rId191" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409912&amp;article.offset=0&amp;articleLimit=10&amp;no=12003007&amp;page=1" xr:uid="{234CE266-C955-4C5D-B1CA-40CA9A6C3CE3}"/>
+    <hyperlink ref="A236" r:id="rId192" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409913&amp;article.offset=0&amp;articleLimit=10&amp;no=12004006&amp;page=1" xr:uid="{E1CB39EE-9988-4D4E-8EC2-F0F8939D8F52}"/>
+    <hyperlink ref="A234" r:id="rId193" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409914&amp;article.offset=0&amp;articleLimit=10&amp;no=12008012&amp;page=1" xr:uid="{CCECBBF7-C2D9-4D24-9ADC-BBFC52D6D4FF}"/>
+    <hyperlink ref="A242" r:id="rId194" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409915&amp;article.offset=0&amp;articleLimit=10&amp;no=12007067&amp;page=1" xr:uid="{8AFA25EB-513D-4A5F-BE7C-822C1F7C49EE}"/>
+    <hyperlink ref="A231" r:id="rId195" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409916&amp;article.offset=0&amp;articleLimit=10&amp;no=12008083&amp;page=1" xr:uid="{FF4EF79A-F174-4A13-93AE-E075BFC3F817}"/>
+    <hyperlink ref="A245" r:id="rId196" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409917&amp;article.offset=0&amp;articleLimit=10&amp;no=12008013&amp;page=1" xr:uid="{79767790-CC7A-4634-A9EF-C00E5147DB57}"/>
+    <hyperlink ref="A230" r:id="rId197" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409918&amp;article.offset=0&amp;articleLimit=10&amp;no=12007009&amp;page=1" xr:uid="{B197F834-17CA-4FC2-9397-E2F2142C9A64}"/>
+    <hyperlink ref="A3" r:id="rId198" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409919&amp;article.offset=0&amp;articleLimit=10&amp;no=12013030&amp;page=1" xr:uid="{4BF751B5-EE37-45A4-8132-3DE5AE632403}"/>
+    <hyperlink ref="A233" r:id="rId199" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409920&amp;article.offset=0&amp;articleLimit=10&amp;no=12010047&amp;page=1" xr:uid="{760B2BB6-F6F0-4376-8B7B-CA6EBEC607C1}"/>
+    <hyperlink ref="A249" r:id="rId200" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1409921&amp;article.offset=0&amp;articleLimit=10&amp;no=12016014&amp;page=2" xr:uid="{F37A25F0-9792-4D04-BF8F-6E8C2E29814E}"/>
+    <hyperlink ref="A241" r:id="rId201" display="https://www.kw.ac.kr/ko/univ/social03_2.jsp?mode=view&amp;articleNo=1509451&amp;article.offset=0&amp;articleLimit=10&amp;no=12020005&amp;page=2" xr:uid="{792E63B2-ACFB-41B8-BC5B-E1992BD3B3C2}"/>
+    <hyperlink ref="A206" r:id="rId202" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409944&amp;article.offset=0&amp;articleLimit=10&amp;no=11993004&amp;page=1" xr:uid="{8FE52F56-52E6-4789-8241-C89568AFD55E}"/>
+    <hyperlink ref="A254" r:id="rId203" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409945&amp;article.offset=0&amp;articleLimit=10&amp;no=12005079&amp;page=1" xr:uid="{54FC8B6D-AA90-4142-903C-EBFE8C5B7248}"/>
+    <hyperlink ref="A209" r:id="rId204" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409946&amp;article.offset=0&amp;articleLimit=10&amp;no=11999110&amp;page=1" xr:uid="{5CA053D4-7101-47D5-9D3C-568E75BAAD75}"/>
+    <hyperlink ref="A208" r:id="rId205" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409947&amp;article.offset=0&amp;articleLimit=10&amp;no=11995004&amp;page=1" xr:uid="{D67D121A-D12F-46F5-A78F-999BAD2CD4AB}"/>
+    <hyperlink ref="A207" r:id="rId206" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409948&amp;article.offset=0&amp;articleLimit=10&amp;no=12004010&amp;page=1" xr:uid="{836697BA-69AB-472E-97F1-4B720F9FDC37}"/>
+    <hyperlink ref="A205" r:id="rId207" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409949&amp;article.offset=0&amp;articleLimit=10&amp;no=12009003&amp;page=1" xr:uid="{B43AA82F-FBC4-49DC-82F5-FA4351C827B0}"/>
+    <hyperlink ref="A247" r:id="rId208" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409950&amp;article.offset=0&amp;articleLimit=10&amp;no=12010049&amp;page=1" xr:uid="{72F5609D-36A8-4377-A6D7-2018D1FF11B6}"/>
+    <hyperlink ref="A246" r:id="rId209" display="https://www.kw.ac.kr/ko/univ/social06_2.jsp?mode=view&amp;articleNo=1409951&amp;article.offset=0&amp;articleLimit=10&amp;no=12015005&amp;page=1" xr:uid="{798E008B-7C35-4172-BFC8-4015C9E8E913}"/>
+    <hyperlink ref="A244" r:id="rId210" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409952&amp;article.offset=0&amp;articleLimit=10&amp;no=11987002&amp;page=1" xr:uid="{7BE5EC48-3A14-43EB-83E2-0B057FFF088A}"/>
+    <hyperlink ref="A192" r:id="rId211" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409953&amp;article.offset=0&amp;articleLimit=10&amp;no=11998007&amp;page=1" xr:uid="{FBCD2344-560C-471E-9F21-8A1B66DA6857}"/>
+    <hyperlink ref="A240" r:id="rId212" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409954&amp;article.offset=0&amp;articleLimit=10&amp;no=11999102&amp;page=1" xr:uid="{841A6B7C-3F67-4635-A695-4E6AF5541BE2}"/>
+    <hyperlink ref="A294" r:id="rId213" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409955&amp;article.offset=0&amp;articleLimit=10&amp;no=11999107&amp;page=1" xr:uid="{080756CA-C72B-443B-9DCD-EC273BFD79D4}"/>
+    <hyperlink ref="A227" r:id="rId214" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409956&amp;article.offset=0&amp;articleLimit=10&amp;no=12001005&amp;page=1" xr:uid="{6F48F62D-E38C-4D83-993A-495EBFDFF9A5}"/>
+    <hyperlink ref="A204" r:id="rId215" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409957&amp;article.offset=0&amp;articleLimit=10&amp;no=12008024&amp;page=1" xr:uid="{D91CB3B7-D63E-4779-B897-E678294286D6}"/>
+    <hyperlink ref="A295" r:id="rId216" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409958&amp;article.offset=0&amp;articleLimit=10&amp;no=12005009&amp;page=1" xr:uid="{485DBC54-474E-41B9-95BF-AABD5A1686AB}"/>
+    <hyperlink ref="A199" r:id="rId217" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409959&amp;article.offset=0&amp;articleLimit=10&amp;no=12006012&amp;page=1" xr:uid="{8A0F6BDD-5CF8-4FA4-9446-1101BC259FC0}"/>
+    <hyperlink ref="A210" r:id="rId218" display="https://www.kw.ac.kr/ko/univ/social07_2.jsp?mode=view&amp;articleNo=1409960&amp;article.offset=0&amp;articleLimit=10&amp;no=12008023&amp;page=1" xr:uid="{C12702AC-2387-4BBB-BEEF-2C126D5D12AF}"/>
+    <hyperlink ref="A223" r:id="rId219" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409628&amp;article.offset=0&amp;articleLimit=10&amp;no=12006011&amp;page=1" xr:uid="{C56EAAEB-E1F9-40AC-98AF-B0243BFB67F3}"/>
+    <hyperlink ref="A218" r:id="rId220" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409629&amp;article.offset=0&amp;articleLimit=10&amp;no=11990003&amp;page=1" xr:uid="{38B7E177-BA81-4593-AF63-C509D68ED0FC}"/>
+    <hyperlink ref="A217" r:id="rId221" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409630&amp;article.offset=0&amp;articleLimit=10&amp;no=11988004&amp;page=1" xr:uid="{B0AD8204-C248-413C-B177-20E43BF30429}"/>
+    <hyperlink ref="A189" r:id="rId222" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409631&amp;article.offset=0&amp;articleLimit=10&amp;no=12006010&amp;page=1" xr:uid="{18135B5C-D368-4C0C-B2BE-A26E0170C69E}"/>
+    <hyperlink ref="A188" r:id="rId223" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409632&amp;article.offset=0&amp;articleLimit=10&amp;no=12007010&amp;page=1" xr:uid="{61739B42-FCC5-45E5-B111-C276B32CF0D1}"/>
+    <hyperlink ref="A184" r:id="rId224" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409633&amp;article.offset=0&amp;articleLimit=10&amp;no=12001006&amp;page=1" xr:uid="{32329450-1B62-4032-8C70-641373A7956D}"/>
+    <hyperlink ref="A238" r:id="rId225" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409634&amp;article.offset=0&amp;articleLimit=10&amp;no=12011047&amp;page=1" xr:uid="{D0F3FB26-6D96-4FC6-BCC0-EE6A99ECB57E}"/>
+    <hyperlink ref="A187" r:id="rId226" display="https://www.kw.ac.kr/ko/univ/law01_2.jsp?mode=view&amp;articleNo=1409635&amp;article.offset=0&amp;articleLimit=10&amp;no=12015004&amp;page=1" xr:uid="{F04F787F-E129-4719-8DE0-FA3EE572F75F}"/>
+    <hyperlink ref="A198" r:id="rId227" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409637&amp;article.offset=0&amp;articleLimit=10&amp;no=11998006&amp;page=1" xr:uid="{AEA52DF4-89EE-4346-A951-2839698A3096}"/>
+    <hyperlink ref="A177" r:id="rId228" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409638&amp;article.offset=0&amp;articleLimit=10&amp;no=12006013&amp;page=1" xr:uid="{00840262-F0B3-4A4A-8FF7-13C7EB49CDA5}"/>
+    <hyperlink ref="A178" r:id="rId229" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409639&amp;article.offset=0&amp;articleLimit=10&amp;no=12008020&amp;page=1" xr:uid="{EE80E3FB-4134-4A43-9ED3-4D11949399EC}"/>
+    <hyperlink ref="A195" r:id="rId230" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409640&amp;article.offset=0&amp;articleLimit=10&amp;no=12008015&amp;page=1" xr:uid="{80E6C090-91BE-431E-B7BF-8214214482E8}"/>
+    <hyperlink ref="A197" r:id="rId231" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409641&amp;article.offset=0&amp;articleLimit=10&amp;no=12008016&amp;page=1" xr:uid="{B102BB1C-3A81-457C-BFEF-8E3828000BA2}"/>
+    <hyperlink ref="A203" r:id="rId232" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409642&amp;article.offset=0&amp;articleLimit=10&amp;no=12009004&amp;page=1" xr:uid="{2D1F0870-85AA-4C4B-B668-D5C622C349E8}"/>
+    <hyperlink ref="A196" r:id="rId233" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1409643&amp;article.offset=0&amp;articleLimit=10&amp;no=12014021&amp;page=1" xr:uid="{0239BA73-CEF6-4D09-A6E4-93412D736AAA}"/>
+    <hyperlink ref="A296" r:id="rId234" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1500851&amp;article.offset=0&amp;articleLimit=10&amp;no=12014022&amp;page=1" xr:uid="{4E3AB498-AB92-4032-8A7C-ACD122AC0632}"/>
+    <hyperlink ref="A213" r:id="rId235" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1498386&amp;article.offset=0&amp;articleLimit=10&amp;no=12016015&amp;page=1" xr:uid="{AF28F4A7-3E27-4C4C-9D10-AC242B3EA2C3}"/>
+    <hyperlink ref="A202" r:id="rId236" display="https://www.kw.ac.kr/ko/univ/law02_2.jsp?mode=view&amp;articleNo=1509411&amp;article.offset=0&amp;articleLimit=10&amp;no=1202006&amp;page=1" xr:uid="{FB1CEA43-94F0-4926-9D73-BBB0FFC3F8F9}"/>
+    <hyperlink ref="A229" r:id="rId237" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1409660&amp;article.offset=0&amp;articleLimit=10&amp;no=11998008&amp;page=1" xr:uid="{3941BE5C-F0FC-445F-A3BC-FA99DCEEDBE1}"/>
+    <hyperlink ref="A237" r:id="rId238" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1409661&amp;article.offset=0&amp;articleLimit=10&amp;no=12003039&amp;page=1" xr:uid="{3B29092C-42F3-4516-A824-4B1965BAC9EC}"/>
+    <hyperlink ref="A239" r:id="rId239" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1409662&amp;article.offset=0&amp;articleLimit=10&amp;no=12003040&amp;page=1" xr:uid="{8E38322C-8818-4332-8E75-C1DA6EC85F3C}"/>
+    <hyperlink ref="A212" r:id="rId240" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1409663&amp;article.offset=0&amp;articleLimit=10&amp;no=12008025&amp;page=1" xr:uid="{6F730AC6-EC02-440C-AC8B-33A5B3086140}"/>
+    <hyperlink ref="A214" r:id="rId241" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1409664&amp;article.offset=0&amp;articleLimit=10&amp;no=12002003&amp;page=1" xr:uid="{AEEFB579-58B9-4647-A2F6-D10DD2B4317F}"/>
+    <hyperlink ref="A179" r:id="rId242" display="https://www.kw.ac.kr/ko/univ/law05_2.jsp?mode=view&amp;articleNo=1501696&amp;article.offset=0&amp;articleLimit=10&amp;no=12017003&amp;page=1" xr:uid="{98952E00-5C5B-4F12-BAB8-5600A05EE740}"/>
+    <hyperlink ref="A20" r:id="rId243" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498394&amp;article.offset=0&amp;articleLimit=10&amp;no=11983006&amp;page=1" xr:uid="{743F6005-9611-4EA9-92CF-021540E67252}"/>
+    <hyperlink ref="A21" r:id="rId244" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498395&amp;article.offset=0&amp;articleLimit=10&amp;no=11985001&amp;page=1" xr:uid="{7A819117-6A93-4032-8B7E-96F7A7034302}"/>
+    <hyperlink ref="A25" r:id="rId245" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498396&amp;article.offset=0&amp;articleLimit=10&amp;no=11990004&amp;page=1" xr:uid="{D0D26AA6-0090-423C-8091-693F99F5EE2C}"/>
+    <hyperlink ref="A23" r:id="rId246" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498397&amp;article.offset=0&amp;articleLimit=10&amp;no=11992007&amp;page=1" xr:uid="{7911AB02-4670-4B96-99C5-22D798C1F8DB}"/>
+    <hyperlink ref="A194" r:id="rId247" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498401&amp;article.offset=0&amp;articleLimit=10&amp;no=11995007&amp;page=1" xr:uid="{09EA604B-0F2E-4C25-A8AB-6968A3342544}"/>
+    <hyperlink ref="A17" r:id="rId248" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498400&amp;article.offset=0&amp;articleLimit=10&amp;no=11995005&amp;page=1" xr:uid="{2CCF1571-F8B3-4200-A36E-717C3E17A880}"/>
+    <hyperlink ref="A24" r:id="rId249" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498402&amp;article.offset=0&amp;articleLimit=10&amp;no=11999101&amp;page=1" xr:uid="{2A7E78E0-5C5E-4F74-BB6C-86D70A5E43BA}"/>
+    <hyperlink ref="A211" r:id="rId250" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498403&amp;article.offset=0&amp;articleLimit=10&amp;no=12004009&amp;page=1" xr:uid="{B802B847-334B-4CC7-B55A-2F95611E42A3}"/>
+    <hyperlink ref="A16" r:id="rId251" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498404&amp;article.offset=0&amp;articleLimit=10&amp;no=12008086&amp;page=1" xr:uid="{31B527D5-F5D3-4D6E-9525-2D7D6DC2A812}"/>
+    <hyperlink ref="A27" r:id="rId252" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498405&amp;article.offset=0&amp;articleLimit=10&amp;no=12008085&amp;page=1" xr:uid="{D5B232E3-C166-4FF9-9CC2-C3018AA22F04}"/>
+    <hyperlink ref="A18" r:id="rId253" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498406&amp;article.offset=0&amp;articleLimit=10&amp;no=12008076&amp;page=2" xr:uid="{4DFECAA4-6F52-4899-AB3B-D053C52889E9}"/>
+    <hyperlink ref="A19" r:id="rId254" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498407&amp;article.offset=0&amp;articleLimit=10&amp;no=12008084&amp;page=2" xr:uid="{EFC3E92F-9BAC-4583-9E5D-3BF67805AB79}"/>
+    <hyperlink ref="A29" r:id="rId255" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498408&amp;article.offset=0&amp;articleLimit=10&amp;no=12010033&amp;page=2" xr:uid="{20C6F9B8-E8EC-4DF7-86CB-58DC43EB3C21}"/>
+    <hyperlink ref="A30" r:id="rId256" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498409&amp;article.offset=0&amp;articleLimit=10&amp;no=12010034&amp;page=2" xr:uid="{DF941212-7505-4B21-B115-5BF7851F9822}"/>
+    <hyperlink ref="A15" r:id="rId257" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498410&amp;article.offset=0&amp;articleLimit=10&amp;no=12010052&amp;page=2" xr:uid="{CDE34AD0-53A0-4D46-85C5-AB78472B1FE3}"/>
+    <hyperlink ref="A31" r:id="rId258" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498411&amp;article.offset=0&amp;articleLimit=10&amp;no=12011048&amp;page=2" xr:uid="{E5464613-2330-403F-85FA-E9E051BC534B}"/>
+    <hyperlink ref="A28" r:id="rId259" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498412&amp;article.offset=0&amp;articleLimit=10&amp;no=12013025&amp;page=2" xr:uid="{04AECC0C-FCE3-4CC8-B3AD-843C6C2D02AF}"/>
+    <hyperlink ref="A32" r:id="rId260" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1498413&amp;article.offset=0&amp;articleLimit=10&amp;no=12013066&amp;page=2" xr:uid="{A2E6D4C1-0BBD-4ECD-B2F4-0AD70F4946C3}"/>
+    <hyperlink ref="A2" r:id="rId261" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1501335&amp;article.offset=0&amp;articleLimit=10&amp;no=12017010&amp;page=2" xr:uid="{4F98C100-C161-4999-8121-540CFD9E223D}"/>
+    <hyperlink ref="A26" r:id="rId262" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1507860&amp;article.offset=0&amp;articleLimit=10&amp;no=12019066&amp;page=2" xr:uid="{33FA6700-40F8-4B40-B44C-26978121A3A4}"/>
+    <hyperlink ref="A22" r:id="rId263" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1509392&amp;article.offset=0&amp;articleLimit=10&amp;no=12020007&amp;page=3" xr:uid="{5873C27F-1E89-4F50-BDBC-19101E60595A}"/>
+    <hyperlink ref="A297" r:id="rId264" display="https://www.kw.ac.kr/ko/univ/business01_2.jsp?mode=view&amp;articleNo=1509393&amp;article.offset=0&amp;articleLimit=10&amp;no=12020008&amp;page=3" xr:uid="{17F665D2-30C8-4E8C-9734-F478DF594E1E}"/>
+    <hyperlink ref="A201" r:id="rId265" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475333&amp;article.offset=0&amp;articleLimit=10&amp;no=11984002&amp;page=1" xr:uid="{18959C65-2974-4EFB-94C0-B2EC8D02130C}"/>
+    <hyperlink ref="A200" r:id="rId266" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475334&amp;article.offset=0&amp;articleLimit=10&amp;no=11993001&amp;page=1" xr:uid="{4D931DEF-270E-439D-8B89-1DE8C90A325F}"/>
+    <hyperlink ref="A216" r:id="rId267" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475335&amp;article.offset=0&amp;articleLimit=10&amp;no=11998002&amp;page=1" xr:uid="{94D5A9AE-3718-4705-B5F7-71E81447107B}"/>
+    <hyperlink ref="A228" r:id="rId268" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475336&amp;article.offset=0&amp;articleLimit=10&amp;no=12000010&amp;page=1" xr:uid="{8FCCC864-214A-4FCB-ADCB-B95B267CEB21}"/>
+    <hyperlink ref="A215" r:id="rId269" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475337&amp;article.offset=0&amp;articleLimit=10&amp;no=12000011&amp;page=1" xr:uid="{8E04EF92-9D49-4313-B2B8-7AAD50E20BF0}"/>
+    <hyperlink ref="A193" r:id="rId270" display="https://www.kw.ac.kr/ko/univ/business02_2.jsp?mode=view&amp;articleNo=1475338&amp;article.offset=0&amp;articleLimit=10&amp;no=12005078&amp;page=1" xr:uid="{05AD7887-DBF1-490F-83EA-3B7F2949F947}"/>
+    <hyperlink ref="A93" r:id="rId271" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475305&amp;article.offset=0&amp;articleLimit=10&amp;no=11990013&amp;page=1" xr:uid="{7524B8B3-74A5-437C-B528-5DE85139FFAB}"/>
+    <hyperlink ref="A94" r:id="rId272" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475306&amp;article.offset=0&amp;articleLimit=10&amp;no=11990012&amp;page=1" xr:uid="{36E656AF-687A-4812-9065-1E4E292F5C3D}"/>
+    <hyperlink ref="A95" r:id="rId273" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475307&amp;article.offset=0&amp;articleLimit=10&amp;no=11992002&amp;page=1" xr:uid="{16CB87F0-AB7C-499C-9CB5-E49C9B396944}"/>
+    <hyperlink ref="A89" r:id="rId274" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475308&amp;article.offset=0&amp;articleLimit=10&amp;no=12008039&amp;page=1" xr:uid="{0A91484F-A66E-4D82-BFF5-DE493BDC0781}"/>
+    <hyperlink ref="A90" r:id="rId275" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1501197&amp;article.offset=0&amp;articleLimit=10&amp;no=11992001&amp;page=1" xr:uid="{3B598F3F-860F-4B10-945C-F6AD38DC788E}"/>
+    <hyperlink ref="A91" r:id="rId276" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475309&amp;article.offset=0&amp;articleLimit=10&amp;no=12008038&amp;page=1" xr:uid="{BC8E68D3-145A-416D-ACAF-844D56777F6C}"/>
+    <hyperlink ref="A181" r:id="rId277" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475311&amp;article.offset=0&amp;articleLimit=10&amp;no=12008048&amp;page=1" xr:uid="{42630B18-60C7-492A-93E4-7E308B857354}"/>
+    <hyperlink ref="A243" r:id="rId278" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475312&amp;article.offset=0&amp;articleLimit=10&amp;no=12008055&amp;page=1" xr:uid="{A5DDC282-C910-404E-848F-C60E0FDF1CF9}"/>
+    <hyperlink ref="A92" r:id="rId279" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475314&amp;article.offset=0&amp;articleLimit=10&amp;no=12008040&amp;page=1" xr:uid="{1A9BFB08-BE1E-455C-A970-F5067649C3DA}"/>
+    <hyperlink ref="A186" r:id="rId280" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475316&amp;article.offset=0&amp;articleLimit=10&amp;no=12008044&amp;page=1" xr:uid="{7B8C4A6B-71BE-4C47-97A6-0ABD72B0CC5F}"/>
+    <hyperlink ref="A191" r:id="rId281" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475317&amp;article.offset=0&amp;articleLimit=10&amp;no=12008054&amp;page=2" xr:uid="{66DC3C8F-F416-4321-81CC-61013A3375FE}"/>
+    <hyperlink ref="A258" r:id="rId282" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475318&amp;article.offset=0&amp;articleLimit=10&amp;no=12008042&amp;page=2" xr:uid="{30EAD8A0-90C0-4AA1-8ACC-67661AC4440C}"/>
+    <hyperlink ref="A190" r:id="rId283" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475319&amp;article.offset=0&amp;articleLimit=10&amp;no=12008049&amp;page=2" xr:uid="{5F692C0A-1702-4417-BEDC-9776FCD39406}"/>
+    <hyperlink ref="A182" r:id="rId284" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475320&amp;article.offset=0&amp;articleLimit=10&amp;no=12008047&amp;page=2" xr:uid="{D1553518-1FFA-462A-9AA1-63D4182A9F45}"/>
+    <hyperlink ref="A185" r:id="rId285" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475321&amp;article.offset=0&amp;articleLimit=10&amp;no=12008053&amp;page=2" xr:uid="{718984AD-5399-4CD7-9464-452B0F1C4177}"/>
+    <hyperlink ref="A248" r:id="rId286" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475322&amp;article.offset=0&amp;articleLimit=10&amp;no=12012068&amp;page=2" xr:uid="{E86471CC-BCA0-4148-B5B1-EF84B4EA6ACB}"/>
+    <hyperlink ref="A114" r:id="rId287" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475323&amp;article.offset=0&amp;articleLimit=10&amp;no=12012069&amp;page=2" xr:uid="{8AD7DFE8-262E-47A3-8C6D-78D5C101B74A}"/>
+    <hyperlink ref="A253" r:id="rId288" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475324&amp;article.offset=0&amp;articleLimit=10&amp;no=12012070&amp;page=2" xr:uid="{17F20F53-989E-4491-A3BB-F7987B754A0B}"/>
+    <hyperlink ref="A115" r:id="rId289" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475325&amp;article.offset=0&amp;articleLimit=10&amp;no=12012074&amp;page=2" xr:uid="{B1925A24-0AF9-4E9D-8D51-6314EB55EE26}"/>
+    <hyperlink ref="A256" r:id="rId290" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475326&amp;article.offset=0&amp;articleLimit=10&amp;no=12012073&amp;page=2" xr:uid="{FC9F0219-4F56-4592-A331-24DBAF24D24F}"/>
+    <hyperlink ref="A251" r:id="rId291" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475327&amp;article.offset=0&amp;articleLimit=10&amp;no=12012075&amp;page=3" xr:uid="{5462DF48-147D-4D84-8EDB-720C5A9CF3EB}"/>
+    <hyperlink ref="A255" r:id="rId292" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475328&amp;article.offset=0&amp;articleLimit=10&amp;no=12012071&amp;page=3" xr:uid="{39E76291-43A0-4EE9-8B91-CD888C8BC282}"/>
+    <hyperlink ref="A252" r:id="rId293" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475329&amp;article.offset=0&amp;articleLimit=10&amp;no=12011049&amp;page=3" xr:uid="{6AB0B077-11F0-4FE0-AC64-AFE67ECC5864}"/>
+    <hyperlink ref="A4" r:id="rId294" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475330&amp;article.offset=0&amp;articleLimit=10&amp;no=12012042&amp;page=3" xr:uid="{D585B783-1EA9-4A25-8FF7-7B2FE7832F2E}"/>
+    <hyperlink ref="A126" r:id="rId295" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1475331&amp;article.offset=0&amp;articleLimit=10&amp;no=12012076&amp;page=3" xr:uid="{C95E1F94-395F-4C44-AE7B-171B6AF348D1}"/>
+    <hyperlink ref="A118" r:id="rId296" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1498337&amp;article.offset=0&amp;articleLimit=10&amp;no=12013104&amp;page=3" xr:uid="{61C1972B-9A88-46FB-98F9-005EF891785A}"/>
+    <hyperlink ref="A250" r:id="rId297" display="https://www.kw.ac.kr/ko/univ/ingenium01_2.jsp?mode=view&amp;articleNo=1509433&amp;article.offset=0&amp;articleLimit=10&amp;no=12020009&amp;page=3" xr:uid="{7731014A-605F-4621-A39E-007A72DA5B29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId298"/>
+</worksheet>
 </file>